--- a/BackTest/2019-10-24 BackTest TRX.xlsx
+++ b/BackTest/2019-10-24 BackTest TRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>16.72</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>16.72</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>16.73</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>16.74000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>16.75000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>16.75000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.7000000000000099</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>16.76000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.7000000000000099</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>16.76000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.7000000000000099</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>16.77000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-20</v>
+      </c>
       <c r="L21" t="n">
         <v>16.77000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>16.76000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.8000000000000114</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>16.76000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>0.8000000000000114</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>16.75000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>0.9000000000000092</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.11111111111076</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L25" t="n">
         <v>16.73000000000001</v>
@@ -1564,7 +1586,7 @@
         <v>1.000000000000011</v>
       </c>
       <c r="K26" t="n">
-        <v>-19.99999999999972</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L26" t="n">
         <v>16.70000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.20000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-33.33333333333294</v>
+        <v>-100</v>
       </c>
       <c r="L27" t="n">
         <v>16.66000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>1.300000000000008</v>
       </c>
       <c r="K28" t="n">
-        <v>-23.07692307692299</v>
+        <v>-66.66666666666727</v>
       </c>
       <c r="L28" t="n">
         <v>16.62000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>1.400000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>-38.46153846153834</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L29" t="n">
         <v>16.57000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>1.600000000000005</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.28571428571421</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L30" t="n">
         <v>16.54000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>1.600000000000005</v>
       </c>
       <c r="K31" t="n">
-        <v>-14.28571428571421</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L31" t="n">
         <v>16.52000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>1.600000000000005</v>
       </c>
       <c r="K32" t="n">
-        <v>-23.07692307692312</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L32" t="n">
         <v>16.50000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>1.700000000000006</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.692307692307525</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L33" t="n">
         <v>16.49000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.692307692307819</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L34" t="n">
         <v>16.49000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L35" t="n">
         <v>16.49000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>-20.0000000000001</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L36" t="n">
         <v>16.49000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>-14.28571428571428</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L37" t="n">
         <v>16.51000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K38" t="n">
-        <v>-14.28571428571428</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L38" t="n">
         <v>16.53000000000001</v>
@@ -2221,7 +2243,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.28571428571428</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L39" t="n">
         <v>16.56000000000001</v>
@@ -2278,7 +2300,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K40" t="n">
-        <v>-14.28571428571428</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L40" t="n">
         <v>16.57</v>
@@ -2337,7 +2359,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>16.59</v>
@@ -2396,7 +2418,7 @@
         <v>2.300000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.666666666666572</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>16.6</v>
@@ -2455,7 +2477,7 @@
         <v>2.300000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>-6.666666666666572</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L43" t="n">
         <v>16.6</v>
@@ -2514,7 +2536,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L44" t="n">
         <v>16.6</v>
@@ -2573,7 +2595,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>6.666666666666572</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L45" t="n">
         <v>16.61</v>
@@ -2632,7 +2654,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571436</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L46" t="n">
         <v>16.63</v>
@@ -2691,7 +2713,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>33.33333333333353</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>16.65</v>
@@ -2748,7 +2770,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>27.27272727272756</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>16.66</v>
@@ -2799,7 +2821,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K49" t="n">
-        <v>40.00000000000014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>16.67</v>
@@ -2850,7 +2872,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K50" t="n">
-        <v>25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>16.68</v>
@@ -2901,7 +2923,7 @@
         <v>2.5</v>
       </c>
       <c r="K51" t="n">
-        <v>33.3333333333336</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>16.69</v>
@@ -2952,7 +2974,7 @@
         <v>2.5</v>
       </c>
       <c r="K52" t="n">
-        <v>33.3333333333336</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>16.71</v>
@@ -3003,7 +3025,7 @@
         <v>2.5</v>
       </c>
       <c r="K53" t="n">
-        <v>25.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>16.73</v>
@@ -3054,7 +3076,7 @@
         <v>2.5</v>
       </c>
       <c r="K54" t="n">
-        <v>14.28571428571458</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>16.74000000000001</v>
@@ -3105,7 +3127,7 @@
         <v>2.599999999999998</v>
       </c>
       <c r="K55" t="n">
-        <v>42.85714285714271</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>16.76000000000001</v>
@@ -3156,7 +3178,7 @@
         <v>2.599999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>66.66666666666707</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>16.78000000000001</v>
@@ -3207,7 +3229,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>42.85714285714344</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L57" t="n">
         <v>16.79000000000001</v>
@@ -3258,7 +3280,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K58" t="n">
-        <v>42.85714285714315</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L58" t="n">
         <v>16.81000000000001</v>
@@ -3309,7 +3331,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K59" t="n">
-        <v>42.85714285714315</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L59" t="n">
         <v>16.83000000000002</v>
@@ -3360,7 +3382,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K60" t="n">
-        <v>42.85714285714315</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>16.85000000000002</v>
@@ -3411,7 +3433,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K61" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>16.86000000000002</v>
@@ -3462,7 +3484,7 @@
         <v>2.899999999999991</v>
       </c>
       <c r="K62" t="n">
-        <v>33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>16.86000000000002</v>
@@ -3513,7 +3535,7 @@
         <v>2.899999999999991</v>
       </c>
       <c r="K63" t="n">
-        <v>33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>16.86000000000002</v>
@@ -3564,7 +3586,7 @@
         <v>2.899999999999991</v>
       </c>
       <c r="K64" t="n">
-        <v>20.00000000000057</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>16.86000000000002</v>
@@ -3615,7 +3637,7 @@
         <v>2.899999999999991</v>
       </c>
       <c r="K65" t="n">
-        <v>20.00000000000057</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L65" t="n">
         <v>16.85000000000002</v>
@@ -3666,7 +3688,7 @@
         <v>2.999999999999989</v>
       </c>
       <c r="K66" t="n">
-        <v>33.33333333333373</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>16.85000000000002</v>
@@ -3717,7 +3739,7 @@
         <v>3.099999999999987</v>
       </c>
       <c r="K67" t="n">
-        <v>14.28571428571472</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>16.85000000000002</v>
@@ -3768,7 +3790,7 @@
         <v>3.099999999999987</v>
       </c>
       <c r="K68" t="n">
-        <v>14.28571428571472</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>16.84000000000002</v>
@@ -3819,7 +3841,7 @@
         <v>3.099999999999987</v>
       </c>
       <c r="K69" t="n">
-        <v>14.28571428571472</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>16.83000000000002</v>
@@ -3870,7 +3892,7 @@
         <v>3.099999999999987</v>
       </c>
       <c r="K70" t="n">
-        <v>14.28571428571472</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>16.82000000000002</v>
@@ -4125,7 +4147,7 @@
         <v>3.199999999999989</v>
       </c>
       <c r="K75" t="n">
-        <v>-33.33333333333373</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>16.80000000000002</v>
@@ -4176,7 +4198,7 @@
         <v>3.399999999999988</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L76" t="n">
         <v>16.80000000000002</v>
@@ -4227,7 +4249,7 @@
         <v>3.599999999999987</v>
       </c>
       <c r="K77" t="n">
-        <v>-11.11111111111137</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L77" t="n">
         <v>16.79000000000001</v>
@@ -4278,7 +4300,7 @@
         <v>3.699999999999989</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>16.79000000000001</v>
@@ -4329,7 +4351,7 @@
         <v>3.699999999999989</v>
       </c>
       <c r="K79" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>16.79000000000001</v>
@@ -4380,7 +4402,7 @@
         <v>3.699999999999989</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>16.79000000000001</v>
@@ -4431,7 +4453,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-20</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L81" t="n">
         <v>16.78000000000001</v>
@@ -4482,7 +4504,7 @@
         <v>3.79999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.11111111111129</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L82" t="n">
         <v>16.77000000000001</v>
@@ -4584,7 +4606,7 @@
         <v>3.899999999999991</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L84" t="n">
         <v>16.77000000000001</v>
@@ -4635,7 +4657,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K85" t="n">
-        <v>9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>16.79000000000001</v>
@@ -4686,7 +4708,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L86" t="n">
         <v>16.79000000000001</v>
@@ -4737,7 +4759,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K87" t="n">
-        <v>11.11111111111085</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L87" t="n">
         <v>16.81000000000001</v>
@@ -4788,7 +4810,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K88" t="n">
-        <v>11.11111111111085</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L88" t="n">
         <v>16.82000000000001</v>
@@ -4839,7 +4861,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111085</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L89" t="n">
         <v>16.83000000000001</v>
@@ -4890,7 +4912,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K90" t="n">
-        <v>11.11111111111085</v>
+        <v>100</v>
       </c>
       <c r="L90" t="n">
         <v>16.84000000000001</v>
@@ -4941,7 +4963,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K91" t="n">
-        <v>11.11111111111085</v>
+        <v>100</v>
       </c>
       <c r="L91" t="n">
         <v>16.86000000000001</v>
@@ -4992,7 +5014,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K92" t="n">
-        <v>11.11111111111085</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>16.88000000000002</v>
@@ -5043,7 +5065,7 @@
         <v>3.999999999999989</v>
       </c>
       <c r="K93" t="n">
-        <v>11.11111111111085</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>16.89000000000001</v>
@@ -5093,9 +5115,7 @@
       <c r="J94" t="n">
         <v>3.999999999999989</v>
       </c>
-      <c r="K94" t="n">
-        <v>11.11111111111085</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -5144,9 +5164,7 @@
       <c r="J95" t="n">
         <v>3.999999999999989</v>
       </c>
-      <c r="K95" t="n">
-        <v>24.99999999999989</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -5195,9 +5213,7 @@
       <c r="J96" t="n">
         <v>3.999999999999989</v>
       </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -5246,9 +5262,7 @@
       <c r="J97" t="n">
         <v>3.999999999999989</v>
       </c>
-      <c r="K97" t="n">
-        <v>49.99999999999956</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -5298,7 +5312,7 @@
         <v>4.099999999999991</v>
       </c>
       <c r="K98" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L98" t="n">
         <v>16.91000000000001</v>
@@ -5349,7 +5363,7 @@
         <v>4.099999999999991</v>
       </c>
       <c r="K99" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>16.92000000000001</v>
@@ -5400,7 +5414,7 @@
         <v>4.099999999999991</v>
       </c>
       <c r="K100" t="n">
-        <v>49.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>16.93000000000001</v>
@@ -5451,7 +5465,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K101" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>16.93000000000001</v>
@@ -5502,7 +5516,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K102" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>16.93000000000001</v>
@@ -5553,7 +5567,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K103" t="n">
-        <v>33.33333333333254</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>16.93000000000001</v>
@@ -5604,7 +5618,7 @@
         <v>4.199999999999992</v>
       </c>
       <c r="K104" t="n">
-        <v>33.33333333333254</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>16.93000000000001</v>
@@ -5757,7 +5771,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K107" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>16.94000000000001</v>
@@ -5808,7 +5822,7 @@
         <v>4.299999999999994</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>16.94000000000001</v>
@@ -5859,7 +5873,7 @@
         <v>4.399999999999995</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>16.93000000000001</v>
@@ -6012,7 +6026,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K112" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>16.93000000000001</v>
@@ -6063,7 +6077,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L113" t="n">
         <v>16.94000000000001</v>
@@ -6114,7 +6128,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>16.95000000000001</v>
@@ -6165,7 +6179,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>16.96000000000001</v>
@@ -6216,7 +6230,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>16.97000000000001</v>
@@ -6267,7 +6281,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>16.97000000000001</v>
@@ -6318,7 +6332,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>16.97000000000001</v>
@@ -6369,7 +6383,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>16.98000000000001</v>
@@ -6420,7 +6434,7 @@
         <v>4.499999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>16.99000000000001</v>
@@ -6470,9 +6484,7 @@
       <c r="J121" t="n">
         <v>4.499999999999996</v>
       </c>
-      <c r="K121" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -6521,9 +6533,7 @@
       <c r="J122" t="n">
         <v>4.499999999999996</v>
       </c>
-      <c r="K122" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>16.99000000000001</v>
@@ -6624,7 +6634,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>16.99000000000001</v>
@@ -6675,7 +6685,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>16.99000000000001</v>
@@ -6726,7 +6736,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>16.98000000000001</v>
@@ -6777,7 +6787,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>16.97000000000001</v>
@@ -6828,7 +6838,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>16.96000000000001</v>
@@ -6879,7 +6889,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>16.95000000000001</v>
@@ -6930,7 +6940,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>16.94000000000001</v>
@@ -6981,7 +6991,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>16.93000000000001</v>
@@ -7032,7 +7042,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>16.92000000000001</v>
@@ -7083,7 +7093,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K133" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L133" t="n">
         <v>16.92000000000001</v>
@@ -7134,7 +7144,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L134" t="n">
         <v>16.90000000000001</v>
@@ -7185,7 +7195,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L135" t="n">
         <v>16.88000000000002</v>
@@ -7236,7 +7246,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L136" t="n">
         <v>16.87000000000002</v>
@@ -7287,7 +7297,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L137" t="n">
         <v>16.86000000000002</v>
@@ -7338,7 +7348,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L138" t="n">
         <v>16.85000000000002</v>
@@ -7389,7 +7399,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L139" t="n">
         <v>16.84000000000002</v>
@@ -7440,7 +7450,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>-49.99999999999956</v>
+        <v>-100</v>
       </c>
       <c r="L140" t="n">
         <v>16.83000000000002</v>
@@ -7491,7 +7501,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K141" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>16.83000000000002</v>
@@ -7593,7 +7603,7 @@
         <v>5.199999999999992</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>16.82000000000002</v>
@@ -7644,7 +7654,7 @@
         <v>5.199999999999992</v>
       </c>
       <c r="K144" t="n">
-        <v>-20.00000000000057</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>16.83000000000002</v>
@@ -7695,7 +7705,7 @@
         <v>5.199999999999992</v>
       </c>
       <c r="K145" t="n">
-        <v>-20.00000000000057</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>16.84000000000002</v>
@@ -7746,7 +7756,7 @@
         <v>5.299999999999994</v>
       </c>
       <c r="K146" t="n">
-        <v>20.00000000000057</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L146" t="n">
         <v>16.86000000000002</v>
@@ -7797,7 +7807,7 @@
         <v>5.299999999999994</v>
       </c>
       <c r="K147" t="n">
-        <v>20.00000000000057</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L147" t="n">
         <v>16.88000000000002</v>
@@ -7848,7 +7858,7 @@
         <v>5.499999999999993</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>16.88000000000002</v>
@@ -7899,7 +7909,7 @@
         <v>5.499999999999993</v>
       </c>
       <c r="K149" t="n">
-        <v>-14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>16.88000000000002</v>
@@ -7950,7 +7960,7 @@
         <v>5.499999999999993</v>
       </c>
       <c r="K150" t="n">
-        <v>-14.28571428571414</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L150" t="n">
         <v>16.88000000000002</v>
@@ -8001,7 +8011,7 @@
         <v>5.599999999999991</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L151" t="n">
         <v>16.88000000000002</v>
@@ -8154,7 +8164,7 @@
         <v>5.599999999999991</v>
       </c>
       <c r="K154" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>16.89000000000001</v>
@@ -8205,7 +8215,7 @@
         <v>5.599999999999991</v>
       </c>
       <c r="K155" t="n">
-        <v>14.28571428571414</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L155" t="n">
         <v>16.89000000000001</v>
@@ -8256,7 +8266,7 @@
         <v>5.699999999999989</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L156" t="n">
         <v>16.87000000000002</v>
@@ -8307,7 +8317,7 @@
         <v>5.799999999999986</v>
       </c>
       <c r="K157" t="n">
-        <v>11.11111111111102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>16.86000000000002</v>
@@ -8358,7 +8368,7 @@
         <v>5.799999999999986</v>
       </c>
       <c r="K158" t="n">
-        <v>11.11111111111102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>16.87000000000002</v>
@@ -8409,7 +8419,7 @@
         <v>5.799999999999986</v>
       </c>
       <c r="K159" t="n">
-        <v>11.11111111111102</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>16.88000000000002</v>
@@ -8460,7 +8470,7 @@
         <v>5.899999999999984</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>16.88000000000002</v>
@@ -8511,7 +8521,7 @@
         <v>5.899999999999984</v>
       </c>
       <c r="K161" t="n">
-        <v>-11.11111111111102</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>16.87000000000002</v>
@@ -8562,7 +8572,7 @@
         <v>5.999999999999982</v>
       </c>
       <c r="K162" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>16.87000000000002</v>
@@ -8715,7 +8725,7 @@
         <v>5.999999999999982</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>16.87000000000002</v>
@@ -8766,7 +8776,7 @@
         <v>5.999999999999982</v>
       </c>
       <c r="K166" t="n">
-        <v>-14.28571428571472</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>16.88000000000002</v>
@@ -8817,7 +8827,7 @@
         <v>6.099999999999984</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L167" t="n">
         <v>16.89000000000001</v>
@@ -8868,7 +8878,7 @@
         <v>6.199999999999985</v>
       </c>
       <c r="K168" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>16.89000000000001</v>
@@ -9021,7 +9031,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K171" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L171" t="n">
         <v>16.88000000000002</v>
@@ -9072,7 +9082,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K172" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L172" t="n">
         <v>16.87000000000002</v>
@@ -9123,7 +9133,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K173" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L173" t="n">
         <v>16.86000000000002</v>
@@ -9174,7 +9184,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K174" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L174" t="n">
         <v>16.85000000000002</v>
@@ -9225,7 +9235,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K175" t="n">
-        <v>-14.28571428571414</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L175" t="n">
         <v>16.84000000000002</v>
@@ -9276,7 +9286,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L176" t="n">
         <v>16.83000000000002</v>
@@ -9327,7 +9337,7 @@
         <v>6.299999999999983</v>
       </c>
       <c r="K177" t="n">
-        <v>-19.99999999999972</v>
+        <v>-100</v>
       </c>
       <c r="L177" t="n">
         <v>16.81000000000002</v>
@@ -9377,9 +9387,7 @@
       <c r="J178" t="n">
         <v>6.299999999999983</v>
       </c>
-      <c r="K178" t="n">
-        <v>-19.99999999999972</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>16.80000000000002</v>
       </c>
@@ -9428,9 +9436,7 @@
       <c r="J179" t="n">
         <v>6.299999999999983</v>
       </c>
-      <c r="K179" t="n">
-        <v>-19.99999999999972</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>16.80000000000002</v>
       </c>
@@ -9479,9 +9485,7 @@
       <c r="J180" t="n">
         <v>6.299999999999983</v>
       </c>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>16.80000000000002</v>
       </c>
@@ -9530,9 +9534,7 @@
       <c r="J181" t="n">
         <v>6.299999999999983</v>
       </c>
-      <c r="K181" t="n">
-        <v>0</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>16.80000000000002</v>
       </c>
@@ -9582,7 +9584,7 @@
         <v>6.399999999999981</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L182" t="n">
         <v>16.81000000000002</v>
@@ -9633,7 +9635,7 @@
         <v>6.499999999999979</v>
       </c>
       <c r="K183" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>16.81000000000002</v>
@@ -9688,7 +9690,7 @@
         <v>6.499999999999979</v>
       </c>
       <c r="K184" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>16.81000000000002</v>
@@ -9745,7 +9747,7 @@
         <v>6.59999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L185" t="n">
         <v>16.80000000000002</v>
@@ -9800,7 +9802,7 @@
         <v>6.699999999999982</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>16.80000000000002</v>
@@ -9857,7 +9859,7 @@
         <v>6.799999999999983</v>
       </c>
       <c r="K187" t="n">
-        <v>-42.857142857143</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L187" t="n">
         <v>16.79000000000001</v>
@@ -9914,7 +9916,7 @@
         <v>6.799999999999983</v>
       </c>
       <c r="K188" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L188" t="n">
         <v>16.78000000000001</v>
@@ -10085,7 +10087,7 @@
         <v>6.799999999999983</v>
       </c>
       <c r="K191" t="n">
-        <v>-20.00000000000028</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L191" t="n">
         <v>16.75000000000001</v>
@@ -10142,7 +10144,7 @@
         <v>6.799999999999983</v>
       </c>
       <c r="K192" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>16.73</v>
@@ -10199,7 +10201,7 @@
         <v>6.799999999999983</v>
       </c>
       <c r="K193" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>16.72</v>
@@ -10256,7 +10258,7 @@
         <v>6.899999999999981</v>
       </c>
       <c r="K194" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L194" t="n">
         <v>16.7</v>
@@ -10313,7 +10315,7 @@
         <v>6.999999999999979</v>
       </c>
       <c r="K195" t="n">
-        <v>-14.28571428571458</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L195" t="n">
         <v>16.7</v>
@@ -10370,7 +10372,7 @@
         <v>6.999999999999979</v>
       </c>
       <c r="K196" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>16.69</v>
@@ -10427,7 +10429,7 @@
         <v>7.099999999999977</v>
       </c>
       <c r="K197" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>16.68</v>
@@ -10484,7 +10486,7 @@
         <v>7.299999999999976</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L198" t="n">
         <v>16.69</v>
@@ -10541,7 +10543,7 @@
         <v>7.299999999999976</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L199" t="n">
         <v>16.7</v>
@@ -10598,7 +10600,7 @@
         <v>7.399999999999977</v>
       </c>
       <c r="K200" t="n">
-        <v>-9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>16.7</v>
@@ -10655,7 +10657,7 @@
         <v>7.499999999999979</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L201" t="n">
         <v>16.71</v>
@@ -10712,7 +10714,7 @@
         <v>7.59999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>16.71</v>
@@ -10769,7 +10771,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L203" t="n">
         <v>16.72000000000001</v>
@@ -10826,7 +10828,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L204" t="n">
         <v>16.74000000000001</v>
@@ -10877,7 +10879,7 @@
         <v>7.699999999999982</v>
       </c>
       <c r="K205" t="n">
-        <v>9.090909090909207</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L205" t="n">
         <v>16.75000000000001</v>
@@ -10928,7 +10930,7 @@
         <v>7.799999999999979</v>
       </c>
       <c r="K206" t="n">
-        <v>9.090909090908914</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L206" t="n">
         <v>16.77000000000001</v>
@@ -10979,7 +10981,7 @@
         <v>7.899999999999977</v>
       </c>
       <c r="K207" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>16.79000000000001</v>
@@ -11030,7 +11032,7 @@
         <v>7.999999999999975</v>
       </c>
       <c r="K208" t="n">
-        <v>16.66666666666671</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L208" t="n">
         <v>16.80000000000001</v>
@@ -11081,7 +11083,7 @@
         <v>7.999999999999975</v>
       </c>
       <c r="K209" t="n">
-        <v>16.66666666666671</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>16.81000000000001</v>
@@ -11132,7 +11134,7 @@
         <v>7.999999999999975</v>
       </c>
       <c r="K210" t="n">
-        <v>16.66666666666671</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L210" t="n">
         <v>16.83000000000002</v>
@@ -11183,7 +11185,7 @@
         <v>7.999999999999975</v>
       </c>
       <c r="K211" t="n">
-        <v>16.66666666666671</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L211" t="n">
         <v>16.84000000000001</v>
@@ -11234,7 +11236,7 @@
         <v>7.999999999999975</v>
       </c>
       <c r="K212" t="n">
-        <v>16.66666666666671</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>16.86000000000002</v>
@@ -11285,7 +11287,7 @@
         <v>8.099999999999977</v>
       </c>
       <c r="K213" t="n">
-        <v>23.07692307692324</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L213" t="n">
         <v>16.88000000000002</v>
@@ -11336,7 +11338,7 @@
         <v>8.199999999999978</v>
       </c>
       <c r="K214" t="n">
-        <v>23.07692307692291</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L214" t="n">
         <v>16.89000000000001</v>
@@ -11387,7 +11389,7 @@
         <v>8.299999999999979</v>
       </c>
       <c r="K215" t="n">
-        <v>23.07692307692312</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L215" t="n">
         <v>16.91000000000001</v>
@@ -11438,7 +11440,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K216" t="n">
-        <v>14.28571428571421</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L216" t="n">
         <v>16.91000000000001</v>
@@ -11489,7 +11491,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K217" t="n">
-        <v>23.07692307692279</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>16.92000000000001</v>
@@ -11540,7 +11542,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K218" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>16.92000000000001</v>
@@ -11591,7 +11593,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K219" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>16.92000000000001</v>
@@ -11642,7 +11644,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K220" t="n">
-        <v>19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>16.92000000000001</v>
@@ -11693,7 +11695,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K221" t="n">
-        <v>11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>16.92000000000001</v>
@@ -11744,7 +11746,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K222" t="n">
-        <v>24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>16.92000000000001</v>
@@ -11795,7 +11797,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K223" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>16.91000000000001</v>
@@ -11846,7 +11848,7 @@
         <v>8.399999999999981</v>
       </c>
       <c r="K224" t="n">
-        <v>14.285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L224" t="n">
         <v>16.91000000000001</v>
@@ -11896,9 +11898,7 @@
       <c r="J225" t="n">
         <v>8.399999999999981</v>
       </c>
-      <c r="K225" t="n">
-        <v>14.285714285714</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -11947,9 +11947,7 @@
       <c r="J226" t="n">
         <v>8.399999999999981</v>
       </c>
-      <c r="K226" t="n">
-        <v>0</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -11998,9 +11996,7 @@
       <c r="J227" t="n">
         <v>8.399999999999981</v>
       </c>
-      <c r="K227" t="n">
-        <v>19.99999999999943</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -12049,9 +12045,7 @@
       <c r="J228" t="n">
         <v>8.399999999999981</v>
       </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -12100,9 +12094,7 @@
       <c r="J229" t="n">
         <v>8.399999999999981</v>
       </c>
-      <c r="K229" t="n">
-        <v>0</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -12151,9 +12143,7 @@
       <c r="J230" t="n">
         <v>8.399999999999981</v>
       </c>
-      <c r="K230" t="n">
-        <v>0</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>16.90000000000001</v>
       </c>
@@ -12203,7 +12193,7 @@
         <v>8.499999999999982</v>
       </c>
       <c r="K231" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L231" t="n">
         <v>16.91000000000001</v>
@@ -12254,7 +12244,7 @@
         <v>8.499999999999982</v>
       </c>
       <c r="K232" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L232" t="n">
         <v>16.92000000000001</v>
@@ -12305,7 +12295,7 @@
         <v>8.599999999999984</v>
       </c>
       <c r="K233" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>16.92000000000001</v>
@@ -12356,7 +12346,7 @@
         <v>8.699999999999985</v>
       </c>
       <c r="K234" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L234" t="n">
         <v>16.93000000000001</v>
@@ -12407,7 +12397,7 @@
         <v>8.799999999999986</v>
       </c>
       <c r="K235" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>16.93000000000001</v>
@@ -12662,7 +12652,7 @@
         <v>9.29999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>33.33333333333307</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L240" t="n">
         <v>17.04000000000001</v>
@@ -12713,7 +12703,7 @@
         <v>9.399999999999991</v>
       </c>
       <c r="K241" t="n">
-        <v>39.99999999999979</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L241" t="n">
         <v>17.07000000000001</v>
@@ -12764,7 +12754,7 @@
         <v>9.399999999999991</v>
       </c>
       <c r="K242" t="n">
-        <v>39.99999999999979</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L242" t="n">
         <v>17.10000000000001</v>
@@ -12815,7 +12805,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K243" t="n">
-        <v>27.27272727272704</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L243" t="n">
         <v>17.13000000000001</v>
@@ -12866,7 +12856,7 @@
         <v>9.599999999999991</v>
       </c>
       <c r="K244" t="n">
-        <v>16.66666666666677</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L244" t="n">
         <v>17.14000000000001</v>
@@ -12917,7 +12907,7 @@
         <v>9.599999999999991</v>
       </c>
       <c r="K245" t="n">
-        <v>16.66666666666677</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>17.16</v>
@@ -12968,7 +12958,7 @@
         <v>9.599999999999991</v>
       </c>
       <c r="K246" t="n">
-        <v>16.66666666666677</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L246" t="n">
         <v>17.16</v>
@@ -13019,7 +13009,7 @@
         <v>9.699999999999989</v>
       </c>
       <c r="K247" t="n">
-        <v>23.07692307692299</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L247" t="n">
         <v>17.18</v>
@@ -13070,7 +13060,7 @@
         <v>9.799999999999986</v>
       </c>
       <c r="K248" t="n">
-        <v>14.28571428571443</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L248" t="n">
         <v>17.18</v>
@@ -13121,7 +13111,7 @@
         <v>9.899999999999984</v>
       </c>
       <c r="K249" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>17.18</v>
@@ -13172,7 +13162,7 @@
         <v>9.899999999999984</v>
       </c>
       <c r="K250" t="n">
-        <v>20</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L250" t="n">
         <v>17.18</v>
@@ -13223,7 +13213,7 @@
         <v>9.899999999999984</v>
       </c>
       <c r="K251" t="n">
-        <v>14.28571428571421</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L251" t="n">
         <v>17.17</v>
@@ -13274,7 +13264,7 @@
         <v>9.999999999999982</v>
       </c>
       <c r="K252" t="n">
-        <v>6.666666666666761</v>
+        <v>-20</v>
       </c>
       <c r="L252" t="n">
         <v>17.15</v>
@@ -13325,7 +13315,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K253" t="n">
-        <v>20.0000000000001</v>
+        <v>20</v>
       </c>
       <c r="L253" t="n">
         <v>17.15</v>
@@ -13376,7 +13366,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K254" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L254" t="n">
         <v>17.16</v>
@@ -13427,7 +13417,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K255" t="n">
-        <v>23.07692307692324</v>
+        <v>20</v>
       </c>
       <c r="L255" t="n">
         <v>17.17</v>
@@ -13478,7 +13468,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K256" t="n">
-        <v>9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>17.18</v>
@@ -13529,7 +13519,7 @@
         <v>10.09999999999998</v>
       </c>
       <c r="K257" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>17.18</v>
@@ -13580,7 +13570,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>17.18</v>
@@ -13631,7 +13621,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K259" t="n">
-        <v>-11.11111111111102</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>17.17</v>
@@ -13682,7 +13672,7 @@
         <v>10.19999999999998</v>
       </c>
       <c r="K260" t="n">
-        <v>-11.11111111111102</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>17.16</v>
@@ -13733,7 +13723,7 @@
         <v>10.29999999999998</v>
       </c>
       <c r="K261" t="n">
-        <v>-11.11111111111146</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>17.16</v>
@@ -13784,7 +13774,7 @@
         <v>10.39999999999997</v>
       </c>
       <c r="K262" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>17.16</v>
@@ -13886,7 +13876,7 @@
         <v>10.49999999999997</v>
       </c>
       <c r="K264" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>17.16</v>
@@ -13937,7 +13927,7 @@
         <v>10.59999999999997</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L265" t="n">
         <v>17.15</v>
@@ -13988,7 +13978,7 @@
         <v>10.69999999999997</v>
       </c>
       <c r="K266" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>17.15</v>
@@ -14039,7 +14029,7 @@
         <v>10.69999999999997</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L267" t="n">
         <v>17.15</v>
@@ -14090,7 +14080,7 @@
         <v>10.69999999999997</v>
       </c>
       <c r="K268" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L268" t="n">
         <v>17.16</v>
@@ -14141,7 +14131,7 @@
         <v>10.79999999999997</v>
       </c>
       <c r="K269" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>17.16</v>
@@ -14192,7 +14182,7 @@
         <v>10.79999999999997</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L270" t="n">
         <v>17.16</v>
@@ -14243,7 +14233,7 @@
         <v>10.79999999999997</v>
       </c>
       <c r="K271" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>17.15</v>
@@ -14294,7 +14284,7 @@
         <v>10.89999999999997</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.11111111111146</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L272" t="n">
         <v>17.14</v>
@@ -14345,7 +14335,7 @@
         <v>10.99999999999997</v>
       </c>
       <c r="K273" t="n">
-        <v>-11.11111111111102</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L273" t="n">
         <v>17.13</v>
@@ -14396,7 +14386,7 @@
         <v>11.09999999999997</v>
       </c>
       <c r="K274" t="n">
-        <v>-20.00000000000014</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L274" t="n">
         <v>17.11</v>
@@ -14447,7 +14437,7 @@
         <v>11.09999999999997</v>
       </c>
       <c r="K275" t="n">
-        <v>-20.00000000000014</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L275" t="n">
         <v>17.1</v>
@@ -14498,7 +14488,7 @@
         <v>11.09999999999997</v>
       </c>
       <c r="K276" t="n">
-        <v>-20.00000000000014</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L276" t="n">
         <v>17.08000000000001</v>
@@ -14549,7 +14539,7 @@
         <v>11.19999999999997</v>
       </c>
       <c r="K277" t="n">
-        <v>-9.090909090908973</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L277" t="n">
         <v>17.07</v>
@@ -14753,7 +14743,7 @@
         <v>11.29999999999997</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L281" t="n">
         <v>17.07</v>
@@ -14855,7 +14845,7 @@
         <v>11.39999999999997</v>
       </c>
       <c r="K283" t="n">
-        <v>-11.11111111111093</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L283" t="n">
         <v>17.08000000000001</v>
@@ -14906,7 +14896,7 @@
         <v>11.49999999999997</v>
       </c>
       <c r="K284" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>17.08000000000001</v>
@@ -14957,7 +14947,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L285" t="n">
         <v>17.09</v>
@@ -15008,7 +14998,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K286" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>17.1</v>
@@ -15059,7 +15049,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K287" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>17.1</v>
@@ -15110,7 +15100,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>17.1</v>
@@ -15212,7 +15202,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L290" t="n">
         <v>17.1</v>
@@ -15314,7 +15304,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K292" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>17.09</v>
@@ -15365,7 +15355,7 @@
         <v>11.59999999999997</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L293" t="n">
         <v>17.09</v>
@@ -15416,7 +15406,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L294" t="n">
         <v>17.09</v>
@@ -15467,7 +15457,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L295" t="n">
         <v>17.08000000000001</v>
@@ -15518,7 +15508,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L296" t="n">
         <v>17.07</v>
@@ -15569,7 +15559,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K297" t="n">
-        <v>-20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L297" t="n">
         <v>17.06000000000001</v>
@@ -15620,7 +15610,7 @@
         <v>11.69999999999997</v>
       </c>
       <c r="K298" t="n">
-        <v>-20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L298" t="n">
         <v>17.05</v>
@@ -15722,7 +15712,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K300" t="n">
-        <v>-14.28571428571443</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>17.04000000000001</v>
@@ -15773,7 +15763,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K301" t="n">
-        <v>-33.33333333333294</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>17.03000000000001</v>
@@ -15824,7 +15814,7 @@
         <v>11.89999999999997</v>
       </c>
       <c r="K302" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>17.02000000000001</v>
@@ -15875,7 +15865,7 @@
         <v>11.99999999999998</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>17.02000000000001</v>
@@ -15977,7 +15967,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K305" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>17.02000000000001</v>
@@ -16028,7 +16018,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K306" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>17.02000000000001</v>
@@ -16079,7 +16069,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K307" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>17.02000000000001</v>
@@ -16130,7 +16120,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K308" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L308" t="n">
         <v>17.02000000000001</v>
@@ -16181,7 +16171,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K309" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>17.01000000000001</v>
@@ -16232,7 +16222,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L310" t="n">
         <v>17.01000000000001</v>
@@ -16283,7 +16273,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K311" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>17.01000000000001</v>
@@ -16334,7 +16324,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L312" t="n">
         <v>17.01000000000001</v>
@@ -16384,9 +16374,7 @@
       <c r="J313" t="n">
         <v>12.09999999999998</v>
       </c>
-      <c r="K313" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -16435,9 +16423,7 @@
       <c r="J314" t="n">
         <v>12.09999999999998</v>
       </c>
-      <c r="K314" t="n">
-        <v>0</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -16486,9 +16472,7 @@
       <c r="J315" t="n">
         <v>12.09999999999998</v>
       </c>
-      <c r="K315" t="n">
-        <v>0</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -16537,9 +16521,7 @@
       <c r="J316" t="n">
         <v>12.09999999999998</v>
       </c>
-      <c r="K316" t="n">
-        <v>0</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -16588,9 +16570,7 @@
       <c r="J317" t="n">
         <v>12.09999999999998</v>
       </c>
-      <c r="K317" t="n">
-        <v>0</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -16639,9 +16619,7 @@
       <c r="J318" t="n">
         <v>12.09999999999998</v>
       </c>
-      <c r="K318" t="n">
-        <v>0</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -16691,7 +16669,7 @@
         <v>12.19999999999998</v>
       </c>
       <c r="K319" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L319" t="n">
         <v>16.99000000000001</v>
@@ -16793,7 +16771,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K321" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>16.98000000000001</v>
@@ -16844,7 +16822,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K322" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>16.97000000000001</v>
@@ -16895,7 +16873,7 @@
         <v>12.39999999999998</v>
       </c>
       <c r="K323" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>16.96000000000001</v>
@@ -17170,7 +17148,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>16.92000000000001</v>
@@ -17288,7 +17266,7 @@
         <v>12.49999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L330" t="n">
         <v>16.93000000000001</v>
@@ -17347,7 +17325,7 @@
         <v>12.59999999999998</v>
       </c>
       <c r="K331" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>16.93000000000001</v>
@@ -17406,7 +17384,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L332" t="n">
         <v>16.94000000000001</v>
@@ -17465,7 +17443,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>16.95000000000001</v>
@@ -17524,7 +17502,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>16.95000000000001</v>
@@ -17583,7 +17561,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L335" t="n">
         <v>16.96000000000001</v>
@@ -17638,7 +17616,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L336" t="n">
         <v>16.97000000000001</v>
@@ -17815,7 +17793,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L339" t="n">
         <v>16.98000000000001</v>
@@ -17874,7 +17852,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>16.98000000000001</v>
@@ -17933,7 +17911,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>16.99000000000001</v>
@@ -17992,7 +17970,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L342" t="n">
         <v>16.99000000000001</v>
@@ -18049,7 +18027,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L343" t="n">
         <v>16.99000000000001</v>
@@ -18105,9 +18083,7 @@
       <c r="J344" t="n">
         <v>12.89999999999999</v>
       </c>
-      <c r="K344" t="n">
-        <v>20</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -18162,9 +18138,7 @@
       <c r="J345" t="n">
         <v>12.89999999999999</v>
       </c>
-      <c r="K345" t="n">
-        <v>20</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -18214,7 +18188,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L346" t="n">
         <v>16.99000000000001</v>
@@ -18265,7 +18239,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L347" t="n">
         <v>16.98000000000001</v>
@@ -18469,7 +18443,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>16.98000000000001</v>
@@ -18571,7 +18545,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>16.97000000000001</v>
@@ -18622,7 +18596,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>16.96000000000001</v>
@@ -18673,7 +18647,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>16.96000000000001</v>
@@ -18724,7 +18698,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>16.97000000000001</v>
@@ -18979,7 +18953,7 @@
         <v>13.4</v>
       </c>
       <c r="K361" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>16.97000000000001</v>
@@ -19030,7 +19004,7 @@
         <v>13.4</v>
       </c>
       <c r="K362" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>16.96000000000001</v>
@@ -19081,7 +19055,7 @@
         <v>13.5</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>16.97000000000001</v>
@@ -19132,7 +19106,7 @@
         <v>13.6</v>
       </c>
       <c r="K364" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>16.97000000000001</v>
@@ -19234,7 +19208,7 @@
         <v>13.7</v>
       </c>
       <c r="K366" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>16.97000000000001</v>
@@ -19285,7 +19259,7 @@
         <v>13.7</v>
       </c>
       <c r="K367" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>16.97000000000001</v>
@@ -19336,7 +19310,7 @@
         <v>13.8</v>
       </c>
       <c r="K368" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L368" t="n">
         <v>16.96000000000001</v>
@@ -19438,7 +19412,7 @@
         <v>13.9</v>
       </c>
       <c r="K370" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L370" t="n">
         <v>16.96000000000001</v>
@@ -19489,7 +19463,7 @@
         <v>13.9</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L371" t="n">
         <v>16.97000000000001</v>
@@ -19591,7 +19565,7 @@
         <v>14</v>
       </c>
       <c r="K373" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L373" t="n">
         <v>16.99000000000001</v>
@@ -19642,7 +19616,7 @@
         <v>14.1</v>
       </c>
       <c r="K374" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L374" t="n">
         <v>17.00000000000001</v>
@@ -19795,7 +19769,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K377" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>16.99000000000001</v>
@@ -19897,7 +19871,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K379" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L379" t="n">
         <v>16.99000000000001</v>
@@ -19999,7 +19973,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L381" t="n">
         <v>16.98000000000001</v>
@@ -20050,7 +20024,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K382" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L382" t="n">
         <v>16.98000000000001</v>
@@ -20152,7 +20126,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K384" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L384" t="n">
         <v>16.96000000000001</v>
@@ -20254,7 +20228,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L386" t="n">
         <v>16.96000000000001</v>
@@ -20356,7 +20330,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K388" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L388" t="n">
         <v>16.97000000000001</v>
@@ -20458,7 +20432,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K390" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>16.98000000000001</v>
@@ -20611,7 +20585,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K393" t="n">
-        <v>-11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L393" t="n">
         <v>16.99000000000001</v>
@@ -20661,9 +20635,7 @@
       <c r="J394" t="n">
         <v>14.90000000000002</v>
       </c>
-      <c r="K394" t="n">
-        <v>0</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -20712,9 +20684,7 @@
       <c r="J395" t="n">
         <v>14.90000000000002</v>
       </c>
-      <c r="K395" t="n">
-        <v>0</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -20763,9 +20733,7 @@
       <c r="J396" t="n">
         <v>14.90000000000002</v>
       </c>
-      <c r="K396" t="n">
-        <v>0</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -20815,7 +20783,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K397" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L397" t="n">
         <v>17.01000000000001</v>
@@ -20866,7 +20834,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K398" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L398" t="n">
         <v>17.02000000000001</v>
@@ -20917,7 +20885,7 @@
         <v>15.10000000000002</v>
       </c>
       <c r="K399" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>17.02000000000001</v>
@@ -21070,7 +21038,7 @@
         <v>15.20000000000002</v>
       </c>
       <c r="K402" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>17.04000000000001</v>
@@ -21172,7 +21140,7 @@
         <v>15.30000000000002</v>
       </c>
       <c r="K404" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>17.04000000000001</v>
@@ -21274,7 +21242,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L406" t="n">
         <v>17.05</v>
@@ -21325,7 +21293,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K407" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L407" t="n">
         <v>17.04000000000001</v>
@@ -21427,7 +21395,7 @@
         <v>15.60000000000003</v>
       </c>
       <c r="K409" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L409" t="n">
         <v>17.04000000000001</v>
@@ -21478,7 +21446,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L410" t="n">
         <v>17.04000000000001</v>
@@ -21529,7 +21497,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L411" t="n">
         <v>17.03000000000001</v>
@@ -21580,7 +21548,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K412" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L412" t="n">
         <v>17.03000000000001</v>
@@ -21631,7 +21599,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K413" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L413" t="n">
         <v>17.04000000000001</v>
@@ -21682,7 +21650,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K414" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>17.05</v>
@@ -21733,7 +21701,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K415" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>17.05</v>
@@ -21835,7 +21803,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K417" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L417" t="n">
         <v>17.06000000000001</v>
@@ -21988,7 +21956,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K420" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L420" t="n">
         <v>17.07</v>
@@ -22141,7 +22109,7 @@
         <v>16.30000000000004</v>
       </c>
       <c r="K423" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L423" t="n">
         <v>17.07</v>
@@ -22192,7 +22160,7 @@
         <v>16.40000000000004</v>
       </c>
       <c r="K424" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>17.07</v>
@@ -22243,7 +22211,7 @@
         <v>16.40000000000004</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L425" t="n">
         <v>17.07</v>
@@ -22294,7 +22262,7 @@
         <v>16.40000000000004</v>
       </c>
       <c r="K426" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L426" t="n">
         <v>17.08000000000001</v>
@@ -22345,7 +22313,7 @@
         <v>16.40000000000004</v>
       </c>
       <c r="K427" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>17.08000000000001</v>
@@ -22396,7 +22364,7 @@
         <v>16.40000000000004</v>
       </c>
       <c r="K428" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L428" t="n">
         <v>17.08000000000001</v>
@@ -22498,7 +22466,7 @@
         <v>16.40000000000004</v>
       </c>
       <c r="K430" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L430" t="n">
         <v>17.09</v>
@@ -22549,7 +22517,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>17.08000000000001</v>
@@ -22600,7 +22568,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K432" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>17.07</v>
@@ -22651,7 +22619,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K433" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L433" t="n">
         <v>17.07</v>
@@ -22702,7 +22670,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K434" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L434" t="n">
         <v>17.06000000000001</v>
@@ -22753,7 +22721,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K435" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L435" t="n">
         <v>17.05</v>
@@ -22804,7 +22772,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K436" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>17.05</v>
@@ -22855,7 +22823,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K437" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L437" t="n">
         <v>17.04000000000001</v>
@@ -22906,7 +22874,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K438" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>17.03000000000001</v>
@@ -22957,7 +22925,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L439" t="n">
         <v>17.02000000000001</v>
@@ -23008,7 +22976,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K440" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>17.01000000000001</v>
@@ -23059,7 +23027,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K441" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>17.01000000000001</v>
@@ -23110,7 +23078,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K442" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>17.01000000000001</v>
@@ -23212,7 +23180,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K444" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>17.01000000000001</v>
@@ -23263,7 +23231,7 @@
         <v>16.70000000000004</v>
       </c>
       <c r="K445" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L445" t="n">
         <v>17.01000000000001</v>
@@ -23314,7 +23282,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K446" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L446" t="n">
         <v>17.01000000000001</v>
@@ -23365,7 +23333,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K447" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>17.01000000000001</v>
@@ -23416,7 +23384,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K448" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>17.01000000000001</v>
@@ -23467,7 +23435,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K449" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>17.01000000000001</v>
@@ -23518,7 +23486,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K450" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>17.01000000000001</v>
@@ -23569,7 +23537,7 @@
         <v>17.00000000000005</v>
       </c>
       <c r="K451" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L451" t="n">
         <v>17.00000000000001</v>
@@ -23620,7 +23588,7 @@
         <v>17.00000000000005</v>
       </c>
       <c r="K452" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>16.99000000000001</v>
@@ -23671,7 +23639,7 @@
         <v>17.00000000000005</v>
       </c>
       <c r="K453" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L453" t="n">
         <v>16.98000000000001</v>
@@ -23722,7 +23690,7 @@
         <v>17.00000000000005</v>
       </c>
       <c r="K454" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L454" t="n">
         <v>16.97000000000001</v>
@@ -23773,7 +23741,7 @@
         <v>17.10000000000004</v>
       </c>
       <c r="K455" t="n">
-        <v>-33.33333333333294</v>
+        <v>-100</v>
       </c>
       <c r="L455" t="n">
         <v>16.95000000000001</v>
@@ -23824,7 +23792,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K456" t="n">
-        <v>-33.33333333333373</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L456" t="n">
         <v>16.93000000000001</v>
@@ -23875,7 +23843,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K457" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L457" t="n">
         <v>16.92000000000001</v>
@@ -23926,7 +23894,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K458" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L458" t="n">
         <v>16.91000000000001</v>
@@ -23977,7 +23945,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K459" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L459" t="n">
         <v>16.90000000000001</v>
@@ -24028,7 +23996,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K460" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>16.89000000000001</v>
@@ -24079,7 +24047,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K461" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>16.89000000000001</v>
@@ -24130,7 +24098,7 @@
         <v>17.20000000000004</v>
       </c>
       <c r="K462" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>16.89000000000001</v>
@@ -24232,7 +24200,7 @@
         <v>17.30000000000004</v>
       </c>
       <c r="K464" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>16.87000000000002</v>
@@ -24283,7 +24251,7 @@
         <v>17.30000000000004</v>
       </c>
       <c r="K465" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L465" t="n">
         <v>16.87000000000002</v>
@@ -24334,7 +24302,7 @@
         <v>17.30000000000004</v>
       </c>
       <c r="K466" t="n">
-        <v>-60.00000000000056</v>
+        <v>-100</v>
       </c>
       <c r="L466" t="n">
         <v>16.86000000000002</v>
@@ -24385,7 +24353,7 @@
         <v>17.40000000000004</v>
       </c>
       <c r="K467" t="n">
-        <v>-20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L467" t="n">
         <v>16.86000000000002</v>
@@ -24436,7 +24404,7 @@
         <v>17.60000000000004</v>
       </c>
       <c r="K468" t="n">
-        <v>-42.85714285714344</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L468" t="n">
         <v>16.84000000000001</v>
@@ -24487,7 +24455,7 @@
         <v>17.60000000000004</v>
       </c>
       <c r="K469" t="n">
-        <v>-42.85714285714344</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L469" t="n">
         <v>16.82000000000001</v>
@@ -24538,7 +24506,7 @@
         <v>17.70000000000004</v>
       </c>
       <c r="K470" t="n">
-        <v>-25.00000000000011</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L470" t="n">
         <v>16.81000000000001</v>
@@ -24589,7 +24557,7 @@
         <v>17.70000000000004</v>
       </c>
       <c r="K471" t="n">
-        <v>-14.28571428571414</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L471" t="n">
         <v>16.80000000000001</v>
@@ -24640,7 +24608,7 @@
         <v>17.80000000000004</v>
       </c>
       <c r="K472" t="n">
-        <v>-25.00000000000011</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L472" t="n">
         <v>16.78000000000001</v>
@@ -24691,7 +24659,7 @@
         <v>17.90000000000004</v>
       </c>
       <c r="K473" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>16.78000000000001</v>
@@ -24742,7 +24710,7 @@
         <v>17.90000000000004</v>
       </c>
       <c r="K474" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>16.78000000000001</v>
@@ -24793,7 +24761,7 @@
         <v>18.00000000000004</v>
       </c>
       <c r="K475" t="n">
-        <v>-11.11111111111129</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L475" t="n">
         <v>16.77000000000001</v>
@@ -24844,7 +24812,7 @@
         <v>18.10000000000004</v>
       </c>
       <c r="K476" t="n">
-        <v>-11.11111111111085</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L476" t="n">
         <v>16.77000000000001</v>
@@ -24895,7 +24863,7 @@
         <v>18.10000000000004</v>
       </c>
       <c r="K477" t="n">
-        <v>-11.11111111111085</v>
+        <v>20</v>
       </c>
       <c r="L477" t="n">
         <v>16.76000000000001</v>
@@ -24946,7 +24914,7 @@
         <v>18.10000000000004</v>
       </c>
       <c r="K478" t="n">
-        <v>-11.11111111111085</v>
+        <v>20</v>
       </c>
       <c r="L478" t="n">
         <v>16.77000000000001</v>
@@ -24997,7 +24965,7 @@
         <v>18.10000000000004</v>
       </c>
       <c r="K479" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>16.78000000000002</v>
@@ -25048,7 +25016,7 @@
         <v>18.10000000000004</v>
       </c>
       <c r="K480" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>16.78000000000002</v>
@@ -25099,7 +25067,7 @@
         <v>18.20000000000004</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L481" t="n">
         <v>16.79000000000001</v>
@@ -25150,7 +25118,7 @@
         <v>18.30000000000004</v>
       </c>
       <c r="K482" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>16.80000000000002</v>
@@ -25201,7 +25169,7 @@
         <v>18.40000000000004</v>
       </c>
       <c r="K483" t="n">
-        <v>9.090909090908914</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L483" t="n">
         <v>16.81000000000002</v>
@@ -25252,7 +25220,7 @@
         <v>18.40000000000004</v>
       </c>
       <c r="K484" t="n">
-        <v>9.090909090908914</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L484" t="n">
         <v>16.82000000000001</v>
@@ -25303,7 +25271,7 @@
         <v>18.40000000000004</v>
       </c>
       <c r="K485" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>16.84000000000002</v>
@@ -25354,7 +25322,7 @@
         <v>18.40000000000004</v>
       </c>
       <c r="K486" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>16.85000000000002</v>
@@ -25405,7 +25373,7 @@
         <v>18.40000000000004</v>
       </c>
       <c r="K487" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>16.86000000000002</v>
@@ -25456,7 +25424,7 @@
         <v>18.40000000000004</v>
       </c>
       <c r="K488" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L488" t="n">
         <v>16.87000000000002</v>
@@ -25507,7 +25475,7 @@
         <v>18.50000000000004</v>
       </c>
       <c r="K489" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L489" t="n">
         <v>16.89000000000001</v>
@@ -25558,7 +25526,7 @@
         <v>18.50000000000004</v>
       </c>
       <c r="K490" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L490" t="n">
         <v>16.91000000000001</v>
@@ -25609,7 +25577,7 @@
         <v>18.50000000000004</v>
       </c>
       <c r="K491" t="n">
-        <v>24.99999999999989</v>
+        <v>100</v>
       </c>
       <c r="L491" t="n">
         <v>16.92000000000001</v>
@@ -25660,7 +25628,7 @@
         <v>18.60000000000004</v>
       </c>
       <c r="K492" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>16.93000000000001</v>
@@ -25711,7 +25679,7 @@
         <v>18.60000000000004</v>
       </c>
       <c r="K493" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>16.93000000000001</v>
@@ -25762,7 +25730,7 @@
         <v>18.60000000000004</v>
       </c>
       <c r="K494" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>16.93000000000001</v>
@@ -25813,7 +25781,7 @@
         <v>18.70000000000004</v>
       </c>
       <c r="K495" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>16.94000000000001</v>
@@ -25864,7 +25832,7 @@
         <v>18.80000000000004</v>
       </c>
       <c r="K496" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L496" t="n">
         <v>16.94000000000001</v>
@@ -25915,7 +25883,7 @@
         <v>18.90000000000004</v>
       </c>
       <c r="K497" t="n">
-        <v>24.99999999999989</v>
+        <v>20</v>
       </c>
       <c r="L497" t="n">
         <v>16.95000000000001</v>
@@ -25966,7 +25934,7 @@
         <v>18.90000000000004</v>
       </c>
       <c r="K498" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>16.96000000000001</v>
@@ -26017,7 +25985,7 @@
         <v>18.90000000000004</v>
       </c>
       <c r="K499" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L499" t="n">
         <v>16.96000000000001</v>
@@ -26068,7 +26036,7 @@
         <v>18.90000000000004</v>
       </c>
       <c r="K500" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>16.96000000000001</v>
@@ -26119,7 +26087,7 @@
         <v>18.90000000000004</v>
       </c>
       <c r="K501" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L501" t="n">
         <v>16.96000000000001</v>
@@ -26170,7 +26138,7 @@
         <v>18.90000000000004</v>
       </c>
       <c r="K502" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L502" t="n">
         <v>16.97000000000001</v>
@@ -26272,7 +26240,7 @@
         <v>19.10000000000005</v>
       </c>
       <c r="K504" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>16.98000000000001</v>
@@ -26323,7 +26291,7 @@
         <v>19.10000000000005</v>
       </c>
       <c r="K505" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L505" t="n">
         <v>16.98000000000001</v>
@@ -26374,7 +26342,7 @@
         <v>19.10000000000005</v>
       </c>
       <c r="K506" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>16.99000000000001</v>
@@ -26425,7 +26393,7 @@
         <v>19.10000000000005</v>
       </c>
       <c r="K507" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>16.99000000000001</v>
@@ -26476,7 +26444,7 @@
         <v>19.20000000000005</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L508" t="n">
         <v>16.98000000000001</v>
@@ -26578,7 +26546,7 @@
         <v>19.40000000000005</v>
       </c>
       <c r="K510" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L510" t="n">
         <v>16.97000000000001</v>
@@ -26629,7 +26597,7 @@
         <v>19.40000000000005</v>
       </c>
       <c r="K511" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L511" t="n">
         <v>16.96000000000001</v>
@@ -26680,7 +26648,7 @@
         <v>19.50000000000005</v>
       </c>
       <c r="K512" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L512" t="n">
         <v>16.96000000000001</v>
@@ -26731,7 +26699,7 @@
         <v>19.50000000000005</v>
       </c>
       <c r="K513" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L513" t="n">
         <v>16.97000000000001</v>
@@ -26782,7 +26750,7 @@
         <v>19.50000000000005</v>
       </c>
       <c r="K514" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>16.97000000000001</v>
@@ -26884,7 +26852,7 @@
         <v>19.60000000000005</v>
       </c>
       <c r="K516" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L516" t="n">
         <v>16.96000000000001</v>
@@ -26935,7 +26903,7 @@
         <v>19.60000000000005</v>
       </c>
       <c r="K517" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>16.95000000000001</v>
@@ -27037,7 +27005,7 @@
         <v>19.80000000000006</v>
       </c>
       <c r="K519" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>16.95000000000001</v>
@@ -27088,7 +27056,7 @@
         <v>19.80000000000006</v>
       </c>
       <c r="K520" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>16.95000000000001</v>
@@ -27139,7 +27107,7 @@
         <v>19.80000000000006</v>
       </c>
       <c r="K521" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L521" t="n">
         <v>16.95000000000001</v>
@@ -27190,7 +27158,7 @@
         <v>19.80000000000006</v>
       </c>
       <c r="K522" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L522" t="n">
         <v>16.94000000000001</v>
@@ -27241,7 +27209,7 @@
         <v>19.80000000000006</v>
       </c>
       <c r="K523" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L523" t="n">
         <v>16.93000000000001</v>
@@ -27292,7 +27260,7 @@
         <v>19.80000000000006</v>
       </c>
       <c r="K524" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L524" t="n">
         <v>16.92000000000001</v>
@@ -27343,7 +27311,7 @@
         <v>19.80000000000006</v>
       </c>
       <c r="K525" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>16.91000000000001</v>
@@ -27394,7 +27362,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K526" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L526" t="n">
         <v>16.92000000000001</v>
@@ -27496,7 +27464,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K528" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L528" t="n">
         <v>16.93000000000001</v>
@@ -27547,7 +27515,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K529" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L529" t="n">
         <v>16.94000000000001</v>
@@ -27598,7 +27566,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K530" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L530" t="n">
         <v>16.95000000000001</v>
@@ -27649,7 +27617,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K531" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L531" t="n">
         <v>16.96000000000001</v>
@@ -27700,7 +27668,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K532" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L532" t="n">
         <v>16.97000000000001</v>
@@ -27751,7 +27719,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K533" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L533" t="n">
         <v>16.98000000000001</v>
@@ -27802,7 +27770,7 @@
         <v>19.90000000000006</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L534" t="n">
         <v>16.99000000000001</v>
@@ -27852,9 +27820,7 @@
       <c r="J535" t="n">
         <v>19.90000000000006</v>
       </c>
-      <c r="K535" t="n">
-        <v>0</v>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -27903,9 +27869,7 @@
       <c r="J536" t="n">
         <v>19.90000000000006</v>
       </c>
-      <c r="K536" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -27954,9 +27918,7 @@
       <c r="J537" t="n">
         <v>19.90000000000006</v>
       </c>
-      <c r="K537" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -28005,9 +27967,7 @@
       <c r="J538" t="n">
         <v>19.90000000000006</v>
       </c>
-      <c r="K538" t="n">
-        <v>0</v>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>17.00000000000001</v>
       </c>
@@ -28516,7 +28476,7 @@
         <v>20.20000000000006</v>
       </c>
       <c r="K548" t="n">
-        <v>33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L548" t="n">
         <v>17.11</v>
@@ -28567,7 +28527,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K549" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L549" t="n">
         <v>17.12</v>
@@ -28618,7 +28578,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K550" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L550" t="n">
         <v>17.13</v>
@@ -28669,7 +28629,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K551" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L551" t="n">
         <v>17.14</v>
@@ -28720,7 +28680,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K552" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L552" t="n">
         <v>17.15</v>
@@ -28771,7 +28731,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K553" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L553" t="n">
         <v>17.16</v>
@@ -28822,7 +28782,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K554" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L554" t="n">
         <v>17.17</v>
@@ -28873,7 +28833,7 @@
         <v>20.30000000000005</v>
       </c>
       <c r="K555" t="n">
-        <v>50.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L555" t="n">
         <v>17.18</v>
@@ -28924,7 +28884,7 @@
         <v>20.40000000000006</v>
       </c>
       <c r="K556" t="n">
-        <v>60.00000000000056</v>
+        <v>100</v>
       </c>
       <c r="L556" t="n">
         <v>17.19</v>
@@ -28975,7 +28935,7 @@
         <v>20.50000000000006</v>
       </c>
       <c r="K557" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L557" t="n">
         <v>17.2</v>
@@ -29026,7 +28986,7 @@
         <v>20.60000000000006</v>
       </c>
       <c r="K558" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L558" t="n">
         <v>17.22</v>
@@ -29383,7 +29343,7 @@
         <v>20.60000000000006</v>
       </c>
       <c r="K565" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>17.29000000000002</v>
@@ -29485,7 +29445,7 @@
         <v>20.80000000000006</v>
       </c>
       <c r="K567" t="n">
-        <v>33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>17.29000000000002</v>
@@ -29536,7 +29496,7 @@
         <v>20.80000000000006</v>
       </c>
       <c r="K568" t="n">
-        <v>33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>17.29000000000002</v>
@@ -29587,7 +29547,7 @@
         <v>20.80000000000006</v>
       </c>
       <c r="K569" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L569" t="n">
         <v>17.29000000000002</v>
@@ -29638,7 +29598,7 @@
         <v>20.80000000000006</v>
       </c>
       <c r="K570" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L570" t="n">
         <v>17.29000000000002</v>
@@ -29689,7 +29649,7 @@
         <v>20.80000000000006</v>
       </c>
       <c r="K571" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L571" t="n">
         <v>17.29000000000002</v>
@@ -29740,7 +29700,7 @@
         <v>20.80000000000006</v>
       </c>
       <c r="K572" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>17.29000000000002</v>
@@ -29791,7 +29751,7 @@
         <v>20.90000000000006</v>
       </c>
       <c r="K573" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L573" t="n">
         <v>17.30000000000002</v>
@@ -29842,7 +29802,7 @@
         <v>21.10000000000006</v>
       </c>
       <c r="K574" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L574" t="n">
         <v>17.29000000000001</v>
@@ -29893,7 +29853,7 @@
         <v>21.20000000000006</v>
       </c>
       <c r="K575" t="n">
-        <v>11.1111111111112</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L575" t="n">
         <v>17.29000000000001</v>
@@ -29995,7 +29955,7 @@
         <v>21.30000000000006</v>
       </c>
       <c r="K577" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L577" t="n">
         <v>17.29000000000001</v>
@@ -30250,7 +30210,7 @@
         <v>21.50000000000006</v>
       </c>
       <c r="K582" t="n">
-        <v>11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L582" t="n">
         <v>17.30000000000001</v>
@@ -30301,7 +30261,7 @@
         <v>21.60000000000006</v>
       </c>
       <c r="K583" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L583" t="n">
         <v>17.29000000000001</v>
@@ -30454,7 +30414,7 @@
         <v>21.60000000000006</v>
       </c>
       <c r="K586" t="n">
-        <v>11.11111111111129</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L586" t="n">
         <v>17.30000000000002</v>
@@ -30709,7 +30669,7 @@
         <v>21.70000000000006</v>
       </c>
       <c r="K591" t="n">
-        <v>-11.11111111111129</v>
+        <v>-100</v>
       </c>
       <c r="L591" t="n">
         <v>17.30000000000002</v>
@@ -30760,7 +30720,7 @@
         <v>21.90000000000006</v>
       </c>
       <c r="K592" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L592" t="n">
         <v>17.30000000000002</v>
@@ -30811,7 +30771,7 @@
         <v>22.00000000000006</v>
       </c>
       <c r="K593" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>17.30000000000002</v>
@@ -30862,7 +30822,7 @@
         <v>22.10000000000005</v>
       </c>
       <c r="K594" t="n">
-        <v>20</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L594" t="n">
         <v>17.31000000000002</v>
@@ -30913,7 +30873,7 @@
         <v>22.10000000000005</v>
       </c>
       <c r="K595" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L595" t="n">
         <v>17.32000000000001</v>
@@ -30964,7 +30924,7 @@
         <v>22.10000000000005</v>
       </c>
       <c r="K596" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L596" t="n">
         <v>17.33000000000002</v>
@@ -31015,7 +30975,7 @@
         <v>22.10000000000005</v>
       </c>
       <c r="K597" t="n">
-        <v>25.00000000000011</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L597" t="n">
         <v>17.34000000000001</v>
@@ -31066,7 +31026,7 @@
         <v>22.10000000000005</v>
       </c>
       <c r="K598" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L598" t="n">
         <v>17.35000000000002</v>
@@ -31117,7 +31077,7 @@
         <v>22.10000000000005</v>
       </c>
       <c r="K599" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L599" t="n">
         <v>17.36000000000001</v>
@@ -31168,7 +31128,7 @@
         <v>22.20000000000005</v>
       </c>
       <c r="K600" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L600" t="n">
         <v>17.36000000000001</v>
@@ -31219,7 +31179,7 @@
         <v>22.30000000000005</v>
       </c>
       <c r="K601" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L601" t="n">
         <v>17.38000000000002</v>
@@ -31270,7 +31230,7 @@
         <v>22.30000000000005</v>
       </c>
       <c r="K602" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L602" t="n">
         <v>17.38000000000002</v>
@@ -31321,7 +31281,7 @@
         <v>22.40000000000005</v>
       </c>
       <c r="K603" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L603" t="n">
         <v>17.38000000000002</v>
@@ -31372,7 +31332,7 @@
         <v>22.40000000000005</v>
       </c>
       <c r="K604" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L604" t="n">
         <v>17.37000000000002</v>
@@ -31423,7 +31383,7 @@
         <v>22.40000000000005</v>
       </c>
       <c r="K605" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L605" t="n">
         <v>17.36000000000002</v>
@@ -31474,7 +31434,7 @@
         <v>22.50000000000005</v>
       </c>
       <c r="K606" t="n">
-        <v>-11.11111111111137</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L606" t="n">
         <v>17.34000000000001</v>
@@ -31525,7 +31485,7 @@
         <v>22.60000000000005</v>
       </c>
       <c r="K607" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L607" t="n">
         <v>17.33000000000002</v>
@@ -31576,7 +31536,7 @@
         <v>22.60000000000005</v>
       </c>
       <c r="K608" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L608" t="n">
         <v>17.32000000000001</v>
@@ -31627,7 +31587,7 @@
         <v>22.70000000000005</v>
       </c>
       <c r="K609" t="n">
-        <v>-9.090909090909268</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L609" t="n">
         <v>17.30000000000001</v>
@@ -31678,7 +31638,7 @@
         <v>22.80000000000005</v>
       </c>
       <c r="K610" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L610" t="n">
         <v>17.30000000000001</v>
@@ -31729,7 +31689,7 @@
         <v>22.90000000000006</v>
       </c>
       <c r="K611" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L611" t="n">
         <v>17.28000000000001</v>
@@ -31780,7 +31740,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K612" t="n">
-        <v>-9.090909090908914</v>
+        <v>0</v>
       </c>
       <c r="L612" t="n">
         <v>17.27000000000001</v>
@@ -31882,7 +31842,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K614" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L614" t="n">
         <v>17.27000000000001</v>
@@ -31933,7 +31893,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K615" t="n">
-        <v>-11.11111111111085</v>
+        <v>20</v>
       </c>
       <c r="L615" t="n">
         <v>17.27000000000001</v>
@@ -31984,7 +31944,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K616" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L616" t="n">
         <v>17.28000000000002</v>
@@ -32035,7 +31995,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K617" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L617" t="n">
         <v>17.28000000000002</v>
@@ -32086,7 +32046,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K618" t="n">
-        <v>-11.11111111111085</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L618" t="n">
         <v>17.28000000000002</v>
@@ -32137,7 +32097,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K619" t="n">
-        <v>-11.11111111111085</v>
+        <v>0</v>
       </c>
       <c r="L619" t="n">
         <v>17.29000000000002</v>
@@ -32188,7 +32148,7 @@
         <v>23.00000000000006</v>
       </c>
       <c r="K620" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L620" t="n">
         <v>17.29000000000002</v>
@@ -32238,9 +32198,7 @@
       <c r="J621" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K621" t="n">
-        <v>-14.28571428571385</v>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32289,9 +32247,7 @@
       <c r="J622" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K622" t="n">
-        <v>-14.28571428571385</v>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32340,9 +32296,7 @@
       <c r="J623" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K623" t="n">
-        <v>0</v>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32391,9 +32345,7 @@
       <c r="J624" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K624" t="n">
-        <v>0</v>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32442,9 +32394,7 @@
       <c r="J625" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K625" t="n">
-        <v>0</v>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32493,9 +32443,7 @@
       <c r="J626" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K626" t="n">
-        <v>20</v>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32544,9 +32492,7 @@
       <c r="J627" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K627" t="n">
-        <v>0</v>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32595,9 +32541,7 @@
       <c r="J628" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K628" t="n">
-        <v>0</v>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32646,9 +32590,7 @@
       <c r="J629" t="n">
         <v>23.00000000000006</v>
       </c>
-      <c r="K629" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>17.30000000000002</v>
       </c>
@@ -32698,7 +32640,7 @@
         <v>23.10000000000005</v>
       </c>
       <c r="K630" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L630" t="n">
         <v>17.31000000000002</v>
@@ -32749,7 +32691,7 @@
         <v>23.20000000000005</v>
       </c>
       <c r="K631" t="n">
-        <v>33.33333333333412</v>
+        <v>0</v>
       </c>
       <c r="L631" t="n">
         <v>17.31000000000002</v>
@@ -33157,7 +33099,7 @@
         <v>23.50000000000005</v>
       </c>
       <c r="K639" t="n">
-        <v>19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>17.38000000000002</v>
@@ -33208,7 +33150,7 @@
         <v>23.50000000000005</v>
       </c>
       <c r="K640" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L640" t="n">
         <v>17.38000000000002</v>
@@ -33259,7 +33201,7 @@
         <v>23.50000000000005</v>
       </c>
       <c r="K641" t="n">
-        <v>19.99999999999972</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L641" t="n">
         <v>17.39000000000001</v>
@@ -33361,7 +33303,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K643" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L643" t="n">
         <v>17.40000000000001</v>
@@ -33412,7 +33354,7 @@
         <v>23.70000000000005</v>
       </c>
       <c r="K644" t="n">
-        <v>14.28571428571414</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>17.41000000000001</v>

--- a/BackTest/2019-10-24 BackTest TRX.xlsx
+++ b/BackTest/2019-10-24 BackTest TRX.xlsx
@@ -836,13 +836,17 @@
         <v>16.84000000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -877,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -912,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -947,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1017,8 +1045,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1052,8 +1086,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1087,8 +1127,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,8 +1168,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1157,8 +1209,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1192,8 +1250,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1227,8 +1291,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1262,8 +1332,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1373,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,8 +1414,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1367,8 +1455,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1402,8 +1496,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1431,18 +1531,18 @@
         <v>16.75500000000003</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1472,15 +1572,15 @@
         <v>16.74666666666669</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1513,15 +1613,15 @@
         <v>16.73833333333336</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1554,15 +1654,15 @@
         <v>16.7316666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1601,9 +1701,11 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>16.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1636,15 +1738,15 @@
         <v>16.72333333333336</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1677,15 +1779,15 @@
         <v>16.7166666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,15 +1820,15 @@
         <v>16.71000000000003</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1759,15 +1861,15 @@
         <v>16.70500000000003</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1800,15 +1902,15 @@
         <v>16.70000000000003</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1841,15 +1943,15 @@
         <v>16.6966666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1882,15 +1984,15 @@
         <v>16.69333333333337</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1923,15 +2025,15 @@
         <v>16.68833333333337</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1964,15 +2066,15 @@
         <v>16.68333333333337</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,15 +2107,15 @@
         <v>16.68000000000004</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2046,15 +2148,15 @@
         <v>16.67833333333337</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2087,15 +2189,15 @@
         <v>16.67666666666671</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2128,15 +2230,15 @@
         <v>16.67500000000004</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2175,7 +2277,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2214,7 +2318,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,7 +2359,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,7 +2400,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2331,7 +2441,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,7 +2482,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,7 +2523,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2448,7 +2564,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2487,7 +2605,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2526,7 +2646,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2565,7 +2687,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,7 +2728,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,7 +2769,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2682,7 +2810,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2721,7 +2851,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2760,7 +2892,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,7 +2933,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2838,7 +2974,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2877,7 +3015,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,7 +3056,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,7 +3097,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2994,7 +3138,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,7 +3179,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,7 +3220,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3111,7 +3261,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3150,7 +3302,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3189,7 +3343,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,7 +3384,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,7 +3425,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3306,7 +3466,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3345,7 +3507,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,7 +3548,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3423,7 +3589,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,7 +3630,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,7 +3671,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3540,7 +3712,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,7 +3753,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,7 +3794,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3657,7 +3835,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3696,7 +3876,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,7 +3917,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3774,7 +3958,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3813,7 +3999,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,7 +4040,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3891,7 +4081,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,7 +4122,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3969,7 +4163,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,7 +4204,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4047,7 +4245,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4086,7 +4286,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4125,7 +4327,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4164,7 +4368,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4203,7 +4409,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4242,7 +4450,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4281,7 +4491,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,7 +4532,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4359,7 +4573,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4398,7 +4614,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,7 +4655,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4476,7 +4696,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,7 +4737,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,7 +4778,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4593,7 +4819,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,7 +4860,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4671,7 +4901,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,7 +4942,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,7 +4983,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,7 +5024,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,7 +5065,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4863,16 +5103,20 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>16.8</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4900,11 +5144,17 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4935,11 +5185,17 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4970,11 +5226,17 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5267,17 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5040,11 +5308,17 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5075,11 +5349,17 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5113,8 +5393,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5148,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5183,8 +5475,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +5516,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5253,8 +5557,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +5598,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5639,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5358,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5393,8 +5721,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5428,8 +5762,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5463,8 +5803,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5498,8 +5844,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5533,8 +5885,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5568,8 +5926,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5603,8 +5967,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5673,8 +6049,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5708,8 +6090,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5743,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5778,8 +6172,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5813,8 +6213,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5848,8 +6254,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5883,8 +6295,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5918,8 +6336,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5953,8 +6377,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5988,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6023,8 +6459,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6058,8 +6500,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6093,8 +6541,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6128,8 +6582,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6623,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6198,8 +6664,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6233,8 +6705,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6268,8 +6746,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6303,8 +6787,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6338,8 +6828,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +6869,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6408,8 +6910,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +6951,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +6992,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6513,8 +7033,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6548,8 +7074,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6583,8 +7115,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6618,8 +7156,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6653,8 +7197,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6688,8 +7238,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +7279,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6758,8 +7320,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7361,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6828,8 +7402,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6863,8 +7443,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6898,8 +7484,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6933,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6968,8 +7566,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7003,8 +7607,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7038,8 +7648,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7073,8 +7689,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7108,8 +7730,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7143,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7178,8 +7812,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7213,8 +7853,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7248,8 +7894,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7283,8 +7935,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7353,8 +8017,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7388,8 +8058,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7423,8 +8099,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7458,8 +8140,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7493,8 +8181,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +8222,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7563,8 +8263,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7598,8 +8304,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7633,8 +8345,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7668,8 +8386,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7703,8 +8427,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7738,8 +8468,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7773,8 +8509,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7808,8 +8550,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7843,8 +8591,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7878,8 +8632,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7913,8 +8673,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +8714,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7983,8 +8755,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8018,8 +8796,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8053,8 +8837,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8088,8 +8878,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8123,8 +8919,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8158,8 +8960,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8193,8 +9001,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8228,8 +9042,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8263,8 +9083,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8298,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8333,8 +9165,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8368,8 +9206,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8403,8 +9247,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8438,8 +9288,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9329,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8508,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8543,8 +9411,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8578,8 +9452,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8613,8 +9493,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8648,8 +9534,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8683,8 +9575,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8718,8 +9616,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8753,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8788,8 +9698,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8823,8 +9739,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8858,8 +9780,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8893,8 +9821,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8928,8 +9862,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8963,8 +9903,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8998,8 +9944,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9033,8 +9985,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9068,8 +10026,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9103,8 +10067,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9138,8 +10108,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9173,8 +10149,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +10187,17 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9240,11 +10228,17 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9278,10 +10272,16 @@
         <v>1</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M243" t="n">
-        <v>1</v>
+        <v>1.018809523809524</v>
       </c>
     </row>
     <row r="244">
@@ -9310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -9345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
@@ -17217,13 +18217,17 @@
         <v>16.98000000000001</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K470" t="n">
+        <v>16.7</v>
+      </c>
       <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
@@ -17258,8 +18262,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17287,14 +18297,22 @@
         <v>16.97000000000001</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K472" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17322,14 +18340,22 @@
         <v>16.96500000000001</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K473" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17363,8 +18389,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17398,8 +18430,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17433,8 +18471,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17462,14 +18506,22 @@
         <v>16.94500000000001</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K477" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17497,14 +18549,22 @@
         <v>16.94000000000001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K478" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17532,14 +18592,22 @@
         <v>16.93666666666667</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K479" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17567,14 +18635,22 @@
         <v>16.93166666666668</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K480" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17608,8 +18684,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17637,14 +18719,22 @@
         <v>16.92333333333334</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K482" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17678,8 +18768,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17713,8 +18809,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17748,8 +18850,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17783,8 +18891,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17818,8 +18932,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17853,8 +18973,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17888,8 +19014,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17923,8 +19055,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17958,8 +19096,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17993,8 +19137,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18028,8 +19178,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18063,8 +19219,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18098,8 +19260,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18133,8 +19301,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18168,8 +19342,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18203,8 +19383,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18238,8 +19424,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18273,8 +19465,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18308,8 +19506,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18343,8 +19547,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18378,8 +19588,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18413,8 +19629,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18448,8 +19670,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18483,8 +19711,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18518,8 +19752,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18553,8 +19793,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18588,8 +19834,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18623,8 +19875,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18658,8 +19916,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18693,8 +19957,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18728,8 +19998,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18763,8 +20039,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18798,8 +20080,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18833,8 +20121,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18868,8 +20162,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18903,8 +20203,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18938,8 +20244,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18973,8 +20285,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19008,8 +20326,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19043,8 +20367,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19078,8 +20408,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19113,8 +20449,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19148,8 +20490,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19183,8 +20531,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19218,8 +20572,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19253,8 +20613,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19288,8 +20654,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19323,8 +20695,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19358,8 +20736,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19393,8 +20777,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19428,8 +20818,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19463,8 +20859,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19498,8 +20900,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19533,8 +20941,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19568,8 +20982,14 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19603,8 +21023,14 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19638,8 +21064,14 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19673,8 +21105,14 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19708,8 +21146,14 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19743,8 +21187,14 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19778,8 +21228,14 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19813,8 +21269,14 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19848,8 +21310,14 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19883,8 +21351,14 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19918,8 +21392,14 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19953,8 +21433,14 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19988,8 +21474,14 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +21515,14 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20058,8 +21556,14 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20093,8 +21597,14 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20128,8 +21638,14 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20163,8 +21679,14 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20198,8 +21720,14 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20233,8 +21761,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20268,8 +21802,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20300,13 +21840,19 @@
         <v>0</v>
       </c>
       <c r="I558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M558" t="n">
-        <v>1</v>
+        <v>1.030928143712575</v>
       </c>
     </row>
     <row r="559">
@@ -20405,7 +21951,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest TRX.xlsx
+++ b/BackTest/2019-10-24 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>2059772.17438716</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -4444,14 +4444,10 @@
         <v>-2582191.273656429</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4481,19 +4477,11 @@
         <v>-2582191.273656429</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J124" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4741,10 @@
         <v>-2576675.535549929</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J132" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4796,19 +4774,11 @@
         <v>-2576675.535549929</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4837,19 +4807,11 @@
         <v>-2577970.945749929</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J134" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4878,14 +4840,10 @@
         <v>-2572018.105549929</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="J135" t="n">
-        <v>16.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4915,19 +4873,11 @@
         <v>-2573726.655549929</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J136" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4956,19 +4906,11 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5063,14 +5005,10 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="J140" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5100,14 +5038,12 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>16.7</v>
       </c>
-      <c r="J141" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5141,14 +5077,12 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>16.7</v>
       </c>
-      <c r="J142" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5182,14 +5116,12 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>16.8</v>
       </c>
-      <c r="J143" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,14 +5155,12 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>16.8</v>
       </c>
-      <c r="J144" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,14 +5194,10 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J145" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,9 +5234,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +5271,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,14 +5305,12 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>16.9</v>
       </c>
-      <c r="J148" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,14 +5344,12 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>16.9</v>
       </c>
-      <c r="J149" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5465,14 +5383,12 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>16.9</v>
       </c>
-      <c r="J150" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,14 +5422,10 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J151" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5547,14 +5459,12 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>16.9</v>
       </c>
-      <c r="J152" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5588,14 +5498,10 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J153" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,14 +5535,10 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J154" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5670,14 +5572,10 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J155" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5711,14 +5609,10 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J156" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,9 +5649,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,9 +5686,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,9 +5723,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5872,9 +5760,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5911,9 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,9 +5834,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,9 +5871,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,9 +5908,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,9 +5945,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,9 +5982,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6145,9 +6019,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,9 +6056,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6223,9 +6093,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6262,9 +6130,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,9 +6167,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6340,9 +6204,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,9 +6241,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6418,9 +6278,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6457,9 +6315,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6496,9 +6352,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,9 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,9 +6426,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,9 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,9 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,9 +6537,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,9 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,9 +6611,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,9 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,9 +6685,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,9 +6722,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6925,9 +6759,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6964,9 +6796,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7000,12 +6830,12 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,12 +6869,12 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,12 +6908,12 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7117,12 +6947,12 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,12 +6986,12 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,12 +7025,12 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7234,12 +7064,12 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7273,12 +7103,12 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,12 +7142,12 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,12 +7181,12 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7390,12 +7220,12 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7429,12 +7259,12 @@
         <v>-2681360.605049929</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7468,12 +7298,12 @@
         <v>-2686584.605049929</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7507,12 +7337,12 @@
         <v>-2568164.859349929</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,12 +7376,12 @@
         <v>-2568164.859349929</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7585,12 +7415,12 @@
         <v>-2568164.859349929</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7624,12 +7454,12 @@
         <v>-2567782.447585229</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7663,12 +7493,12 @@
         <v>-2567782.447585229</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>17</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7702,12 +7532,12 @@
         <v>-2569495.427585229</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>17</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7741,12 +7571,12 @@
         <v>-2569495.427585229</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7780,12 +7610,12 @@
         <v>-2569495.427585229</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7819,12 +7649,12 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7858,12 +7688,12 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7900,9 +7730,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7936,12 +7764,12 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7975,12 +7803,12 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8014,12 +7842,12 @@
         <v>-2482388.841885229</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,12 +7881,12 @@
         <v>-2482373.812385229</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,12 +7920,12 @@
         <v>-2482373.812385229</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8134,9 +7962,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8170,12 +7996,12 @@
         <v>-2484860.182385229</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,12 +8035,12 @@
         <v>-2484860.182385229</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,12 +8074,12 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,12 +8113,12 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,12 +8152,12 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,12 +8191,12 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8404,12 +8230,12 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,12 +8269,12 @@
         <v>297476.9774303408</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>16.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8485,9 +8311,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8524,9 +8348,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8563,9 +8385,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8602,9 +8422,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8641,9 +8459,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8680,9 +8496,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8719,9 +8533,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,9 +8570,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8797,9 +8607,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8836,9 +8644,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8875,9 +8681,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8914,9 +8718,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8953,9 +8755,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8992,9 +8792,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9031,9 +8829,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9070,9 +8866,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9109,9 +8903,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9148,9 +8940,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9187,9 +8977,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,9 +9014,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9265,9 +9051,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9304,9 +9088,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9343,9 +9125,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9382,9 +9162,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9421,9 +9199,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9460,9 +9236,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9499,9 +9273,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9538,9 +9310,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9577,9 +9347,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9616,9 +9384,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9655,9 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9694,9 +9458,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,9 +9495,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9772,9 +9532,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,9 +9569,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9850,9 +9606,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9889,9 +9643,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9928,9 +9680,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,9 +9717,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10006,9 +9754,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10045,9 +9791,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10084,9 +9828,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10123,9 +9865,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10162,9 +9902,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,9 +9939,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10240,9 +9976,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10279,9 +10013,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10318,9 +10050,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10357,9 +10087,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10396,9 +10124,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10435,9 +10161,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10474,9 +10198,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10513,9 +10235,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10552,9 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10591,9 +10309,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10630,9 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10669,9 +10383,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10708,9 +10420,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10747,9 +10457,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10786,9 +10494,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10825,9 +10531,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10864,9 +10568,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10903,9 +10605,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10942,9 +10642,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10981,9 +10679,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11020,9 +10716,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11059,9 +10753,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11098,9 +10790,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11137,9 +10827,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11176,9 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11215,9 +10901,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11254,9 +10938,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11293,9 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11332,9 +11012,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11371,9 +11049,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11410,9 +11086,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11449,9 +11123,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11488,9 +11160,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11527,9 +11197,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11566,9 +11234,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11605,9 +11271,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11644,9 +11308,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11683,9 +11345,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11722,9 +11382,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11761,9 +11419,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11800,9 +11456,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11839,9 +11493,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11875,20 +11527,16 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>16.8</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L314" t="n">
-        <v>1.018809523809524</v>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
@@ -11914,7 +11562,7 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11980,7 +11628,7 @@
         <v>2194783.560525441</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12046,7 +11694,7 @@
         <v>2194783.560525441</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12079,7 +11727,7 @@
         <v>2224281.205825441</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12112,7 +11760,7 @@
         <v>2221571.355825441</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12145,7 +11793,7 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12178,7 +11826,7 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12211,7 +11859,7 @@
         <v>1841443.984897531</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12244,7 +11892,7 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12277,7 +11925,7 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12310,7 +11958,7 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12343,7 +11991,7 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12508,7 +12156,7 @@
         <v>1749809.814597531</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12541,7 +12189,7 @@
         <v>1749809.814597531</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12574,7 +12222,7 @@
         <v>1749809.814597531</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12607,7 +12255,7 @@
         <v>1780403.234597531</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12640,7 +12288,7 @@
         <v>1780403.234597531</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12706,7 +12354,7 @@
         <v>1780403.234597531</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12739,7 +12387,7 @@
         <v>1905019.197497531</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12772,7 +12420,7 @@
         <v>1538702.893497531</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12805,7 +12453,7 @@
         <v>1538702.893497531</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12838,7 +12486,7 @@
         <v>1536776.254997531</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12871,7 +12519,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12904,7 +12552,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12970,7 +12618,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13003,7 +12651,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13036,7 +12684,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13069,7 +12717,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13102,7 +12750,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13135,7 +12783,7 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13366,7 +13014,7 @@
         <v>1337876.987269451</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13465,7 +13113,7 @@
         <v>1651996.521169451</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13498,7 +13146,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13531,7 +13179,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13564,7 +13212,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13597,7 +13245,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13630,7 +13278,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13663,7 +13311,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13696,7 +13344,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13729,7 +13377,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13762,7 +13410,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13795,7 +13443,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13828,7 +13476,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13861,7 +13509,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13894,7 +13542,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13927,7 +13575,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13960,7 +13608,7 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13993,7 +13641,7 @@
         <v>1379142.727969451</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14092,7 +13740,7 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14158,7 +13806,7 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14191,7 +13839,7 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14224,7 +13872,7 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14257,7 +13905,7 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14290,7 +13938,7 @@
         <v>1431257.619969451</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14323,7 +13971,7 @@
         <v>1431257.619969451</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15874,7 +15522,7 @@
         <v>1216296.361885751</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15907,7 +15555,7 @@
         <v>1156077.976385751</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17194,7 +16842,7 @@
         <v>1631225.837809371</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17260,7 +16908,7 @@
         <v>1632395.428452641</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17293,7 +16941,7 @@
         <v>1630306.668452641</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17326,7 +16974,7 @@
         <v>1922704.32925264</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17458,7 +17106,7 @@
         <v>1996682.64515264</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17722,7 +17370,7 @@
         <v>1843616.22475264</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17788,7 +17436,7 @@
         <v>1843616.22475264</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17821,7 +17469,7 @@
         <v>1843616.22475264</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17854,7 +17502,7 @@
         <v>1843745.05514094</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17887,7 +17535,7 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18019,7 +17667,7 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18052,7 +17700,7 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18085,7 +17733,7 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18118,7 +17766,7 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18151,7 +17799,7 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18184,7 +17832,7 @@
         <v>1815414.29044094</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18217,7 +17865,7 @@
         <v>1735746.49274094</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18283,7 +17931,7 @@
         <v>1735746.49274094</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18316,7 +17964,7 @@
         <v>1735746.49274094</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18679,7 +18327,7 @@
         <v>1699206.45894094</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18745,7 +18393,7 @@
         <v>1696609.94234094</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -21451,7 +21099,7 @@
         <v>1218575.03269108</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21484,7 +21132,7 @@
         <v>2242731.26179108</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21550,7 +21198,7 @@
         <v>2199478.48859108</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21583,7 +21231,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21616,7 +21264,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21649,7 +21297,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21682,7 +21330,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21715,7 +21363,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21748,7 +21396,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21781,7 +21429,7 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21814,7 +21462,7 @@
         <v>2216692.65039108</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21847,7 +21495,7 @@
         <v>2057101.88159108</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21880,7 +21528,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21913,7 +21561,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21946,7 +21594,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21979,7 +21627,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22012,7 +21660,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22045,7 +21693,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22078,7 +21726,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22111,7 +21759,7 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22144,7 +21792,7 @@
         <v>1951892.44017142</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22177,7 +21825,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22210,7 +21858,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22243,7 +21891,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22276,7 +21924,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22309,7 +21957,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22342,7 +21990,7 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22375,7 +22023,7 @@
         <v>2115093.35726337</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22408,7 +22056,7 @@
         <v>2017456.49186337</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22441,7 +22089,7 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22474,7 +22122,7 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22507,7 +22155,7 @@
         <v>1811664.27446337</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22540,7 +22188,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22573,7 +22221,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22606,7 +22254,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22639,7 +22287,7 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22771,7 +22419,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22870,7 +22518,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22936,7 +22584,7 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23068,7 +22716,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23101,7 +22749,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23134,7 +22782,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23167,7 +22815,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23200,7 +22848,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23233,7 +22881,7 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23266,7 +22914,7 @@
         <v>2110023.03166337</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23332,7 +22980,7 @@
         <v>2110033.03166337</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23365,7 +23013,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23398,7 +23046,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23431,7 +23079,7 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23464,7 +23112,7 @@
         <v>1903169.21216337</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23563,7 +23211,7 @@
         <v>2091467.28196337</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23596,7 +23244,7 @@
         <v>2091477.28196337</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23629,7 +23277,7 @@
         <v>2091352.46946337</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23662,7 +23310,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23695,7 +23343,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23728,7 +23376,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23761,7 +23409,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23794,7 +23442,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23827,7 +23475,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23893,7 +23541,7 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24366,6 +24014,6 @@
       <c r="M692" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest TRX.xlsx
+++ b/BackTest/2019-10-24 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,7 +1012,7 @@
         <v>1637950.05668716</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2573726.655549929</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,17 +5038,11 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>16.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5077,17 +5071,11 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>16.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5116,17 +5104,11 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>16.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5155,17 +5137,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>16.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5194,15 +5170,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5231,15 +5203,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5268,15 +5236,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5305,17 +5269,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>16.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5344,17 +5302,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>16.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5383,17 +5335,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>16.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5422,15 +5368,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5459,17 +5401,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>16.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5502,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5535,15 +5467,11 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5576,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5613,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5646,15 +5566,11 @@
         <v>-2455252.674249929</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5687,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5724,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5761,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5798,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5835,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5872,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5909,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5946,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6020,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6057,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6131,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6168,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6205,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6279,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6316,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6353,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6427,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6464,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6538,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6575,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6612,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6686,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6723,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6760,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6797,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6830,17 +6622,11 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6869,17 +6655,11 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6908,17 +6688,11 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6947,17 +6721,11 @@
         <v>-2473458.964649929</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6986,17 +6754,11 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7025,17 +6787,11 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7064,17 +6820,11 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7103,17 +6853,11 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7142,17 +6886,11 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7181,17 +6919,11 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7220,17 +6952,11 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7259,17 +6985,11 @@
         <v>-2681360.605049929</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7298,17 +7018,11 @@
         <v>-2686584.605049929</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7337,17 +7051,11 @@
         <v>-2568164.859349929</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7376,17 +7084,11 @@
         <v>-2568164.859349929</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7415,17 +7117,11 @@
         <v>-2568164.859349929</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7454,17 +7150,11 @@
         <v>-2567782.447585229</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7493,17 +7183,11 @@
         <v>-2567782.447585229</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7532,17 +7216,11 @@
         <v>-2569495.427585229</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7571,17 +7249,11 @@
         <v>-2569495.427585229</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7610,17 +7282,11 @@
         <v>-2569495.427585229</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7649,17 +7315,11 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7688,17 +7348,11 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7731,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7764,17 +7414,11 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7803,17 +7447,11 @@
         <v>-2477388.841885229</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7842,17 +7480,11 @@
         <v>-2482388.841885229</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7881,17 +7513,11 @@
         <v>-2482373.812385229</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7920,17 +7546,11 @@
         <v>-2482373.812385229</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7963,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7996,17 +7612,11 @@
         <v>-2484860.182385229</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8035,17 +7645,11 @@
         <v>-2484860.182385229</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8074,17 +7678,11 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>16.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8113,17 +7711,11 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8157,12 +7749,10 @@
       <c r="I223" t="n">
         <v>16.9</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8196,10 +7786,12 @@
       <c r="I224" t="n">
         <v>16.9</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -8230,15 +7822,15 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -8274,10 +7866,12 @@
       <c r="I226" t="n">
         <v>16.9</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -8311,7 +7905,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,7 +7944,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8385,7 +7983,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8422,7 +8022,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8459,7 +8061,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8496,7 +8100,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8533,7 +8139,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,7 +8178,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,7 +8217,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8644,7 +8256,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8681,7 +8295,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8718,7 +8334,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,7 +8373,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8792,7 +8412,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8829,7 +8451,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8866,7 +8490,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8903,7 +8529,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,7 +8568,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,7 +8607,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,7 +8646,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9051,7 +8685,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,7 +8724,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9125,7 +8763,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9162,7 +8802,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9199,7 +8841,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,7 +8880,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,7 +8919,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9310,7 +8958,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,7 +8997,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,7 +9036,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9421,7 +9075,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9458,7 +9114,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,7 +9153,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9532,7 +9192,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9569,7 +9231,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9606,7 +9270,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9643,7 +9309,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9680,7 +9348,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9717,7 +9387,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9754,7 +9426,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,7 +9465,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9828,7 +9504,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9865,7 +9543,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9902,7 +9582,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9939,7 +9621,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9976,7 +9660,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10013,7 +9699,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10050,7 +9738,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10087,7 +9777,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10124,7 +9816,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10161,7 +9855,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10198,7 +9894,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10235,7 +9933,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10272,7 +9972,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10309,7 +10011,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10346,7 +10050,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10383,7 +10089,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10420,7 +10128,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10457,7 +10167,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10494,7 +10206,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,7 +10245,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10568,7 +10284,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10605,7 +10323,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10642,7 +10362,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10679,7 +10401,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,7 +10440,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10753,7 +10479,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10790,7 +10518,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10827,7 +10557,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10864,7 +10596,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10901,7 +10635,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,7 +10674,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10975,7 +10713,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,7 +10752,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,7 +10791,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11086,7 +10830,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,7 +10869,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11160,7 +10908,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11197,7 +10947,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,7 +10986,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11271,7 +11025,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,7 +11064,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,7 +11103,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,7 +11142,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11419,7 +11181,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11456,7 +11220,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11493,7 +11259,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11527,16 +11295,20 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L314" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
       <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
@@ -11565,8 +11337,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11598,8 +11376,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11631,8 +11415,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11664,8 +11454,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11694,11 +11490,17 @@
         <v>2194783.560525441</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11727,11 +11529,17 @@
         <v>2224281.205825441</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11760,11 +11568,17 @@
         <v>2221571.355825441</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11793,11 +11607,17 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11826,11 +11646,17 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11859,11 +11685,17 @@
         <v>1841443.984897531</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11892,11 +11724,17 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11925,11 +11763,17 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +11802,17 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11991,11 +11841,17 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12027,8 +11883,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12060,8 +11922,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12093,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12126,8 +12000,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12159,8 +12039,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12192,8 +12078,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12225,8 +12117,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12258,8 +12156,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12291,8 +12195,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12324,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12354,11 +12270,17 @@
         <v>1780403.234597531</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12387,11 +12309,17 @@
         <v>1905019.197497531</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12420,11 +12348,17 @@
         <v>1538702.893497531</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12453,11 +12387,17 @@
         <v>1538702.893497531</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12486,11 +12426,17 @@
         <v>1536776.254997531</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12519,11 +12465,17 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12555,8 +12507,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12588,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12618,11 +12582,17 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12654,8 +12624,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12684,11 +12660,17 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12717,11 +12699,17 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12753,8 +12741,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12783,11 +12777,17 @@
         <v>1581194.238497531</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12819,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12852,8 +12858,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12885,8 +12897,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12918,8 +12936,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12951,8 +12975,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12984,8 +13014,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13017,8 +13053,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13050,8 +13092,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13083,8 +13131,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13113,11 +13167,17 @@
         <v>1651996.521169451</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13146,11 +13206,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13179,11 +13245,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13212,11 +13284,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13245,11 +13323,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13278,11 +13362,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13311,11 +13401,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13344,11 +13440,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13377,11 +13479,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13410,11 +13518,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13443,11 +13557,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13476,11 +13596,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13509,11 +13635,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13542,11 +13674,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13575,11 +13713,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13608,11 +13752,17 @@
         <v>1407457.319869451</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13641,11 +13791,17 @@
         <v>1379142.727969451</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13677,8 +13833,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13710,8 +13872,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13740,11 +13908,17 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13776,8 +13950,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13806,11 +13986,17 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13839,11 +14025,17 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13872,11 +14064,17 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13905,11 +14103,17 @@
         <v>1408581.958069451</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13938,11 +14142,17 @@
         <v>1431257.619969451</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13971,11 +14181,17 @@
         <v>1431257.619969451</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14007,8 +14223,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14040,8 +14262,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14073,8 +14301,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14106,8 +14340,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14139,8 +14379,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14172,8 +14418,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14205,8 +14457,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14238,8 +14496,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14271,8 +14535,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14304,8 +14574,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14337,8 +14613,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14370,8 +14652,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14403,8 +14691,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14436,8 +14730,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14469,8 +14769,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14502,8 +14808,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14535,8 +14847,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14568,8 +14886,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14601,8 +14925,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14634,8 +14964,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14667,8 +15003,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14700,8 +15042,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14733,8 +15081,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14766,8 +15120,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14799,8 +15159,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14832,8 +15198,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14865,8 +15237,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14898,8 +15276,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14931,8 +15315,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14964,8 +15354,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14997,8 +15393,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15030,8 +15432,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15063,8 +15471,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15096,8 +15510,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15129,8 +15549,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15162,8 +15588,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15195,8 +15627,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15228,8 +15666,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15261,8 +15705,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15294,8 +15744,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15327,8 +15783,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15360,8 +15822,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15393,8 +15861,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15426,8 +15900,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15459,8 +15939,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15492,8 +15978,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15525,8 +16017,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15558,8 +16056,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15591,8 +16095,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15624,8 +16134,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15657,8 +16173,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15690,8 +16212,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15723,8 +16251,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15756,8 +16290,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15789,8 +16329,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15822,8 +16368,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15855,8 +16407,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15888,8 +16446,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15921,8 +16485,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15954,8 +16524,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15987,8 +16563,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16020,8 +16602,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16053,8 +16641,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16086,8 +16680,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16119,8 +16719,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16152,8 +16758,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16185,8 +16797,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16218,8 +16836,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16251,8 +16875,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16284,8 +16914,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16317,8 +16953,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16350,8 +16992,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16383,8 +17031,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16416,8 +17070,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16449,8 +17109,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16482,8 +17148,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16515,8 +17187,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16548,8 +17226,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16581,8 +17265,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16614,8 +17304,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16647,8 +17343,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16680,8 +17382,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16713,8 +17421,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16746,8 +17460,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16779,8 +17499,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16812,8 +17538,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16845,8 +17577,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16878,8 +17616,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16911,8 +17655,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16944,8 +17694,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16977,8 +17733,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17010,8 +17772,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17043,8 +17811,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17076,8 +17850,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17109,8 +17889,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17142,8 +17928,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17175,8 +17967,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17208,8 +18006,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17241,8 +18045,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17274,8 +18084,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17307,8 +18123,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17340,8 +18162,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17370,11 +18198,17 @@
         <v>1843616.22475264</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17406,8 +18240,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17436,11 +18276,17 @@
         <v>1843616.22475264</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17469,11 +18315,17 @@
         <v>1843616.22475264</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17502,11 +18354,17 @@
         <v>1843745.05514094</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17535,11 +18393,17 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17571,8 +18435,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17604,8 +18474,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17637,8 +18513,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17667,11 +18549,17 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17700,11 +18588,17 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17733,11 +18627,17 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17766,11 +18666,17 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17799,11 +18705,17 @@
         <v>1813359.29054094</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17832,11 +18744,17 @@
         <v>1815414.29044094</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17865,11 +18783,17 @@
         <v>1735746.49274094</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17901,8 +18825,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17931,11 +18861,17 @@
         <v>1735746.49274094</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17964,11 +18900,17 @@
         <v>1735746.49274094</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18000,8 +18942,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18033,8 +18981,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18066,8 +19020,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18099,8 +19059,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18132,8 +19098,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18165,8 +19137,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18198,8 +19176,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18231,8 +19215,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18264,8 +19254,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18297,8 +19293,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18327,11 +19329,17 @@
         <v>1699206.45894094</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18363,8 +19371,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18393,11 +19407,17 @@
         <v>1696609.94234094</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18429,8 +19449,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18462,8 +19488,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18495,8 +19527,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18528,8 +19566,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18561,8 +19605,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18594,8 +19644,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18627,8 +19683,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18660,8 +19722,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18693,8 +19761,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18726,8 +19800,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18759,8 +19839,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18792,8 +19878,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18825,8 +19917,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18858,8 +19956,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18891,8 +19995,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18924,8 +20034,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18957,8 +20073,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18990,8 +20112,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19023,8 +20151,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19056,8 +20190,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19089,8 +20229,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19122,8 +20268,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19155,8 +20307,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19188,8 +20346,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19221,8 +20385,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19254,8 +20424,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19287,8 +20463,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19320,8 +20502,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19353,8 +20541,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19386,8 +20580,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19419,8 +20619,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19452,8 +20658,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19485,8 +20697,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19518,8 +20736,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19551,8 +20775,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19584,8 +20814,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19617,8 +20853,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19650,8 +20892,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19683,8 +20931,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19716,8 +20970,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19749,8 +21009,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19782,8 +21048,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19815,8 +21087,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19848,8 +21126,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19881,8 +21165,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19914,8 +21204,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19947,8 +21243,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19980,8 +21282,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20013,8 +21321,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20046,8 +21360,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20079,8 +21399,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20112,8 +21438,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20145,8 +21477,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20178,8 +21516,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20211,8 +21555,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20244,8 +21594,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20277,8 +21633,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20310,8 +21672,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20343,8 +21711,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20376,8 +21750,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20409,8 +21789,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20442,8 +21828,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20475,8 +21867,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20508,8 +21906,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20541,8 +21945,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20574,8 +21984,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20607,8 +22023,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20640,8 +22062,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20673,8 +22101,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20706,8 +22140,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20739,8 +22179,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20772,8 +22218,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20805,8 +22257,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20838,8 +22296,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20871,8 +22335,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20904,8 +22374,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20937,8 +22413,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20970,8 +22452,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21003,8 +22491,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21036,8 +22530,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21069,8 +22569,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21102,8 +22608,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21135,8 +22647,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21168,8 +22686,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21201,8 +22725,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21234,8 +22764,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21267,8 +22803,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21300,8 +22842,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21333,8 +22881,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21366,8 +22920,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21399,8 +22959,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21432,8 +22998,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21465,8 +23037,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21498,8 +23076,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21531,8 +23115,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21564,8 +23154,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21597,8 +23193,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21627,11 +23229,17 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21660,11 +23268,17 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21693,11 +23307,17 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21726,11 +23346,17 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21759,11 +23385,17 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21792,11 +23424,17 @@
         <v>1951892.44017142</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21825,11 +23463,17 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21858,11 +23502,17 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21891,11 +23541,17 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21924,11 +23580,17 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21957,11 +23619,17 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21990,11 +23658,17 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22023,11 +23697,17 @@
         <v>2115093.35726337</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22056,11 +23736,17 @@
         <v>2017456.49186337</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22089,11 +23775,17 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22122,11 +23814,17 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22155,11 +23853,17 @@
         <v>1811664.27446337</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22188,11 +23892,17 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22221,11 +23931,17 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22254,11 +23970,17 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22287,11 +24009,17 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22323,8 +24051,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22356,8 +24090,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22389,8 +24129,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22422,8 +24168,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22455,8 +24207,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22488,8 +24246,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22521,8 +24285,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22554,8 +24324,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22587,8 +24363,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22620,8 +24402,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22653,8 +24441,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22686,8 +24480,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22719,8 +24519,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22752,8 +24558,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22785,8 +24597,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22818,8 +24636,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22851,8 +24675,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22884,8 +24714,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22917,8 +24753,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22950,8 +24792,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22983,8 +24831,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23016,8 +24870,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23049,8 +24909,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23082,8 +24948,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23115,8 +24987,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23148,8 +25026,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23181,8 +25065,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23211,11 +25101,17 @@
         <v>2091467.28196337</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23244,11 +25140,17 @@
         <v>2091477.28196337</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23277,11 +25179,17 @@
         <v>2091352.46946337</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23310,11 +25218,17 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23343,11 +25257,17 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23376,11 +25296,17 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23409,11 +25335,17 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23442,11 +25374,17 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23475,11 +25413,17 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23511,8 +25455,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23544,8 +25494,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23577,8 +25533,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23610,8 +25572,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23643,8 +25611,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23676,8 +25650,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23709,8 +25689,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23742,8 +25728,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23775,8 +25767,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23808,8 +25806,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23841,8 +25845,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23874,8 +25884,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23907,8 +25923,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23940,8 +25962,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23973,8 +26001,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24006,14 +26040,20 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
       <c r="M692" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest TRX.xlsx
+++ b/BackTest/2019-10-24 BackTest TRX.xlsx
@@ -1012,7 +1012,7 @@
         <v>1637950.05668716</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2573726.655549929</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-2573626.655549929</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,10 +5005,14 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>16.8</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5038,11 +5042,19 @@
         <v>-2575616.645549929</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J141" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5083,19 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J142" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5124,19 @@
         <v>-2474476.739249929</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J143" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5165,19 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5206,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5245,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5284,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5323,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5362,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5401,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5440,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5479,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5521,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5557,17 @@
         <v>-2456866.674249929</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5599,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5638,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5674,17 @@
         <v>-2455252.674249929</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5716,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5755,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5794,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5833,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5872,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +5911,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +5950,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +5989,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6028,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6067,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6145,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6184,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6223,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6262,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6301,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6340,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6379,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6418,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6457,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6496,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6535,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6574,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6613,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6652,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6691,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6769,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6808,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6964,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7078,19 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J193" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7119,19 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J194" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7160,19 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J195" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7204,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7240,19 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J197" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7284,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7320,19 @@
         <v>-2683159.421549929</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J199" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7364,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7403,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7442,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7481,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7520,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7559,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7598,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7637,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7676,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7715,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7754,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7793,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7832,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7871,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7910,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7988,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8027,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8066,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8105,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8144,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8183,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8222,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,15 +8258,17 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+        <v>16.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,17 +8297,15 @@
         <v>-2484850.182385229</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7826,11 +8340,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -7861,17 +8375,15 @@
         <v>297476.9774303408</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -7906,7 +8418,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -7945,7 +8457,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -7984,7 +8496,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8023,7 +8535,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8062,7 +8574,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8101,7 +8613,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8140,7 +8652,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8179,7 +8691,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8218,7 +8730,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8257,7 +8769,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8296,7 +8808,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8335,7 +8847,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8374,7 +8886,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8413,7 +8925,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8452,7 +8964,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8491,7 +9003,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8530,7 +9042,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8569,7 +9081,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8608,7 +9120,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8647,7 +9159,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8686,7 +9198,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8725,7 +9237,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8764,7 +9276,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8803,7 +9315,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8842,7 +9354,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8881,7 +9393,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8920,7 +9432,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8959,7 +9471,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8998,7 +9510,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9037,7 +9549,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9076,7 +9588,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9115,7 +9627,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9154,7 +9666,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9193,7 +9705,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9232,7 +9744,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9271,7 +9783,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9310,7 +9822,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9349,7 +9861,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9388,7 +9900,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9427,7 +9939,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9466,7 +9978,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9505,7 +10017,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9544,7 +10056,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9583,7 +10095,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9622,7 +10134,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9661,7 +10173,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9700,7 +10212,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9739,7 +10251,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9778,7 +10290,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9817,7 +10329,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9856,7 +10368,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9895,7 +10407,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9934,7 +10446,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9973,7 +10485,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10012,7 +10524,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10051,7 +10563,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10090,7 +10602,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10129,7 +10641,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10168,7 +10680,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10207,7 +10719,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10246,7 +10758,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10285,7 +10797,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10324,7 +10836,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10363,7 +10875,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10402,7 +10914,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10441,7 +10953,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10480,7 +10992,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10519,7 +11031,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10558,7 +11070,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10597,7 +11109,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10636,7 +11148,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10675,7 +11187,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10714,7 +11226,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10753,7 +11265,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10788,19 +11300,19 @@
         <v>2286413.798425441</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L301" t="n">
-        <v>1</v>
+        <v>1.024761904761905</v>
       </c>
       <c r="M301" t="inlineStr"/>
     </row>
@@ -10827,17 +11339,11 @@
         <v>1985232.950225441</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10866,17 +11372,11 @@
         <v>1984703.851425441</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10908,14 +11408,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10947,14 +11441,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +11474,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11025,14 +11507,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11064,14 +11540,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11100,17 +11570,11 @@
         <v>2268202.579725441</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11139,17 +11603,11 @@
         <v>2268202.579725441</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11178,17 +11636,11 @@
         <v>2209402.579725441</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11220,14 +11672,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11256,17 +11702,11 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11295,17 +11735,11 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +11771,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11373,17 +11801,11 @@
         <v>2209632.579725441</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11412,17 +11834,11 @@
         <v>2194783.560525441</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11451,17 +11867,11 @@
         <v>2194783.560525441</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11493,14 +11903,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11529,17 +11933,11 @@
         <v>2224281.205825441</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11568,17 +11966,11 @@
         <v>2221571.355825441</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11607,17 +11999,11 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11646,17 +12032,11 @@
         <v>2221777.344197531</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11685,17 +12065,11 @@
         <v>1841443.984897531</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11724,17 +12098,11 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11763,17 +12131,11 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11802,17 +12164,11 @@
         <v>1844214.624397531</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11841,17 +12197,11 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11880,17 +12230,11 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11919,17 +12263,11 @@
         <v>1840882.214397531</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11961,14 +12299,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11997,17 +12329,11 @@
         <v>1751456.734597531</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12039,14 +12365,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12075,17 +12395,11 @@
         <v>1749809.814597531</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12117,14 +12431,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12156,14 +12464,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12195,14 +12497,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12234,14 +12530,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12273,14 +12563,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12312,14 +12596,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12351,14 +12629,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12390,14 +12662,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12429,14 +12695,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12468,14 +12728,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12507,14 +12761,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12546,14 +12794,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12585,14 +12827,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12624,14 +12860,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12663,14 +12893,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12702,14 +12926,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12741,14 +12959,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12780,14 +12992,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12819,14 +13025,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12858,14 +13058,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12897,14 +13091,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12936,14 +13124,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12975,14 +13157,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13014,14 +13190,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13053,14 +13223,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13092,14 +13256,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13131,14 +13289,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13170,14 +13322,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13209,14 +13355,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13248,14 +13388,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13287,14 +13421,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13326,14 +13454,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13365,14 +13487,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13404,14 +13520,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13443,14 +13553,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13482,14 +13586,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13521,14 +13619,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13560,14 +13652,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13599,14 +13685,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13638,14 +13718,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13677,14 +13751,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13716,14 +13784,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13755,14 +13817,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13794,14 +13850,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13833,14 +13883,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13872,14 +13916,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13911,14 +13949,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13950,14 +13982,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13989,14 +14015,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14028,14 +14048,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14067,14 +14081,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14106,14 +14114,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14145,14 +14147,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14184,14 +14180,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14223,14 +14213,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14262,14 +14246,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14301,14 +14279,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14340,14 +14312,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14379,14 +14345,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14418,14 +14378,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14457,14 +14411,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14496,14 +14444,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14535,14 +14477,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14574,14 +14510,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14613,14 +14543,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14652,14 +14576,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14691,14 +14609,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14730,14 +14642,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14769,14 +14675,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14808,14 +14708,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14847,14 +14741,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14886,14 +14774,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14925,14 +14807,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14964,14 +14840,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15003,14 +14873,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15042,14 +14906,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15081,14 +14939,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15120,14 +14972,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15159,14 +15005,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15198,14 +15038,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15237,14 +15071,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15276,14 +15104,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15315,14 +15137,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15354,14 +15170,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15393,14 +15203,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15432,14 +15236,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15471,14 +15269,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15510,14 +15302,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15549,14 +15335,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15588,14 +15368,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15627,14 +15401,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15666,14 +15434,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15705,14 +15467,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15744,14 +15500,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15783,14 +15533,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15822,14 +15566,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15861,14 +15599,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15900,14 +15632,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15939,14 +15665,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15978,14 +15698,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16017,14 +15731,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16056,14 +15764,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16095,14 +15797,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16134,14 +15830,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16173,14 +15863,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16212,14 +15896,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16251,14 +15929,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16290,14 +15962,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16329,14 +15995,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16368,14 +16028,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16407,14 +16061,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16446,14 +16094,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16485,14 +16127,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16524,14 +16160,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16563,14 +16193,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16602,14 +16226,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16641,14 +16259,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16680,14 +16292,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16719,14 +16325,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16758,14 +16358,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16797,14 +16391,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16836,14 +16424,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16875,14 +16457,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16914,14 +16490,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16953,14 +16523,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16992,14 +16556,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17031,14 +16589,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17070,14 +16622,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17109,14 +16655,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17148,14 +16688,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17187,14 +16721,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17226,14 +16754,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17265,14 +16787,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17304,14 +16820,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17343,14 +16853,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17382,14 +16886,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17421,14 +16919,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17460,14 +16952,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17499,14 +16985,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17538,14 +17018,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17577,14 +17051,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17616,14 +17084,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17655,14 +17117,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17694,14 +17150,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17733,14 +17183,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17772,14 +17216,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17811,14 +17249,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17850,14 +17282,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17889,14 +17315,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17928,14 +17348,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17967,14 +17381,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18006,14 +17414,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18045,14 +17447,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18084,14 +17480,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18123,14 +17513,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18162,14 +17546,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18201,14 +17579,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18240,14 +17612,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18279,14 +17645,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18318,14 +17678,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18357,14 +17711,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18396,14 +17744,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18435,14 +17777,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18474,14 +17810,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18513,14 +17843,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18552,14 +17876,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18591,14 +17909,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18630,14 +17942,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18669,14 +17975,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18708,14 +18008,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18747,14 +18041,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18786,14 +18074,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18825,14 +18107,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18864,14 +18140,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18903,14 +18173,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18942,14 +18206,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18981,14 +18239,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19020,14 +18272,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19059,14 +18305,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19098,14 +18338,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19137,14 +18371,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19176,14 +18404,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19215,14 +18437,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19254,14 +18470,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19293,14 +18503,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19332,14 +18536,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19371,14 +18569,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19410,14 +18602,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19449,14 +18635,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19488,14 +18668,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19527,14 +18701,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19566,14 +18734,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19605,14 +18767,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19644,14 +18800,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19683,14 +18833,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19722,14 +18866,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19761,14 +18899,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19800,14 +18932,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19839,14 +18965,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19878,14 +18998,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19917,14 +19031,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19956,14 +19064,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19995,14 +19097,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20034,14 +19130,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20073,14 +19163,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20112,14 +19196,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20151,14 +19229,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20190,14 +19262,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20229,14 +19295,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20268,14 +19328,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20307,14 +19361,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20346,14 +19394,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20385,14 +19427,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20424,14 +19460,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20463,14 +19493,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20502,14 +19526,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20541,14 +19559,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20580,14 +19592,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20619,14 +19625,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20658,14 +19658,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20697,14 +19691,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20736,14 +19724,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20775,14 +19757,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20814,14 +19790,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20853,14 +19823,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20892,14 +19856,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20931,14 +19889,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20970,14 +19922,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21009,14 +19955,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21048,14 +19988,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21087,14 +20021,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21126,14 +20054,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21165,14 +20087,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21204,14 +20120,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21243,14 +20153,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21282,14 +20186,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21321,14 +20219,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21360,14 +20252,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21399,14 +20285,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21438,14 +20318,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21477,14 +20351,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21516,14 +20384,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21555,14 +20417,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21594,14 +20450,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21633,14 +20483,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21672,14 +20516,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21711,14 +20549,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21750,14 +20582,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21789,14 +20615,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21828,14 +20648,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21867,14 +20681,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21906,14 +20714,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21945,14 +20747,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21984,14 +20780,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -22023,14 +20813,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -22062,14 +20846,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -22101,14 +20879,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -22140,14 +20912,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -22179,14 +20945,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -22218,14 +20978,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -22257,14 +21011,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -22296,14 +21044,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22335,14 +21077,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -22374,14 +21110,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -22413,14 +21143,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22452,14 +21176,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22491,14 +21209,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22530,14 +21242,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22569,14 +21275,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22608,14 +21308,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22647,14 +21341,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22686,14 +21374,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22725,14 +21407,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22764,14 +21440,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22803,14 +21473,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22839,17 +21503,11 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22878,17 +21536,11 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22917,17 +21569,11 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22959,14 +21605,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22995,17 +21635,11 @@
         <v>2205878.48859108</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -23037,14 +21671,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -23073,17 +21701,11 @@
         <v>2057101.88159108</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23112,17 +21734,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23151,17 +21767,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23190,17 +21800,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23229,17 +21833,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23268,17 +21866,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23307,17 +21899,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23346,17 +21932,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23385,17 +21965,11 @@
         <v>2057444.88737142</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23424,17 +21998,11 @@
         <v>1951892.44017142</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23463,17 +22031,11 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23502,17 +22064,11 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23541,17 +22097,11 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23580,17 +22130,11 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23619,17 +22163,11 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23658,17 +22196,11 @@
         <v>1952708.27407142</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23697,17 +22229,11 @@
         <v>2115093.35726337</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23736,17 +22262,11 @@
         <v>2017456.49186337</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23775,17 +22295,11 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23814,17 +22328,11 @@
         <v>2031937.35886337</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23853,17 +22361,11 @@
         <v>1811664.27446337</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23892,17 +22394,11 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23931,17 +22427,11 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23970,17 +22460,11 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24009,17 +22493,11 @@
         <v>1850109.96846337</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24048,17 +22526,11 @@
         <v>2177060.08336337</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24087,17 +22559,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24126,17 +22592,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24165,17 +22625,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24204,17 +22658,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24243,17 +22691,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24282,17 +22724,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24321,17 +22757,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24360,17 +22790,11 @@
         <v>2143493.47986337</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24399,17 +22823,11 @@
         <v>2143343.47986337</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24438,17 +22856,11 @@
         <v>2143353.47986337</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24477,17 +22889,11 @@
         <v>2127013.35046337</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24516,17 +22922,11 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24555,17 +22955,11 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24594,17 +22988,11 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24633,17 +23021,11 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24672,17 +23054,11 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24711,17 +23087,11 @@
         <v>2127023.35046337</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24750,17 +23120,11 @@
         <v>2110023.03166337</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24789,17 +23153,11 @@
         <v>2110033.03166337</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24828,17 +23186,11 @@
         <v>2110033.03166337</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24867,17 +23219,11 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24906,17 +23252,11 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24945,17 +23285,11 @@
         <v>1915525.64966337</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24984,17 +23318,11 @@
         <v>1903169.21216337</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25023,17 +23351,11 @@
         <v>2091540.47956337</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25062,17 +23384,11 @@
         <v>2091540.47956337</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25101,17 +23417,11 @@
         <v>2091467.28196337</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25140,17 +23450,11 @@
         <v>2091477.28196337</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25179,17 +23483,11 @@
         <v>2091352.46946337</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25221,14 +23519,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25257,17 +23549,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25296,17 +23582,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25335,17 +23615,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25374,17 +23648,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25413,17 +23681,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25452,17 +23714,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25491,17 +23747,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25530,17 +23780,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25569,17 +23813,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25608,17 +23846,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25647,17 +23879,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25686,17 +23912,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25725,17 +23945,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25764,17 +23978,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25803,17 +24011,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25842,17 +24044,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25881,17 +24077,11 @@
         <v>2092703.54996337</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25920,17 +24110,11 @@
         <v>2092733.54996337</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25959,17 +24143,11 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25998,17 +24176,11 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26037,17 +24209,11 @@
         <v>2063087.89066337</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
